--- a/กรกฎาคม.xlsx
+++ b/กรกฎาคม.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/littlebirdd/Desktop/project/slipper_rework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5753B16-2DDC-5347-BD37-D14BC74A34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA2BC74-40E9-5246-857A-22F693A586D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="2500" windowWidth="34200" windowHeight="17540" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2500" windowWidth="34200" windowHeight="17540" tabRatio="650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dครัวกลาง" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="276">
   <si>
     <t>เบี้ยขยัน</t>
   </si>
@@ -241,9 +241,6 @@
     <t>พนักงานครัวกลาง</t>
   </si>
   <si>
-    <t xml:space="preserve"> chanakanpink5676@gmail.com </t>
-  </si>
-  <si>
     <t>kathrthinaphr@gmail.com</t>
   </si>
   <si>
@@ -568,9 +565,6 @@
     <t>พี่หนิง</t>
   </si>
   <si>
-    <t>นาวสาว ชนกานต์ แก้วเอี่ยม</t>
-  </si>
-  <si>
     <t>นาย มูฮาหมัดฮาชิต ลาเต๊ะ</t>
   </si>
   <si>
@@ -757,9 +751,6 @@
     <t>หนูนา</t>
   </si>
   <si>
-    <t>พริ้ง</t>
-  </si>
-  <si>
     <t>นางสาวจิ  ปอาสา</t>
   </si>
   <si>
@@ -872,6 +863,21 @@
   </si>
   <si>
     <t>tunwit2458@gmail.com</t>
+  </si>
+  <si>
+    <t>นายวรพล ก้อนนาค</t>
+  </si>
+  <si>
+    <t>จา</t>
+  </si>
+  <si>
+    <t>เกย์ประจำกลุ่ม</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>worrapon453@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2157,9 +2163,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="35" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2589,45 +2592,6 @@
     <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2637,6 +2601,48 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2970,7 +2976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9B6FB-A23B-451E-8963-645A0910DDC2}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="174" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="174" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
@@ -3002,8 +3008,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="22" customHeight="1">
-      <c r="A1" s="350"/>
-      <c r="B1" s="351"/>
+      <c r="A1" s="353"/>
+      <c r="B1" s="354"/>
       <c r="C1" s="85"/>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
@@ -3106,14 +3112,14 @@
         <v>49</v>
       </c>
       <c r="AB2" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="22" customHeight="1">
       <c r="A3" s="74">
         <v>1017</v>
       </c>
-      <c r="B3" s="233">
+      <c r="B3" s="232">
         <v>1</v>
       </c>
       <c r="C3" s="91">
@@ -3125,7 +3131,7 @@
       <c r="E3" s="100">
         <v>4</v>
       </c>
-      <c r="F3" s="233">
+      <c r="F3" s="232">
         <v>5</v>
       </c>
       <c r="G3" s="91">
@@ -3137,7 +3143,7 @@
       <c r="I3" s="100">
         <v>8</v>
       </c>
-      <c r="J3" s="233">
+      <c r="J3" s="232">
         <v>9</v>
       </c>
       <c r="K3" s="91">
@@ -3149,7 +3155,7 @@
       <c r="M3" s="100">
         <v>12</v>
       </c>
-      <c r="N3" s="233">
+      <c r="N3" s="232">
         <v>13</v>
       </c>
       <c r="O3" s="91">
@@ -3161,19 +3167,19 @@
       <c r="Q3" s="100">
         <v>16</v>
       </c>
-      <c r="R3" s="233">
+      <c r="R3" s="232">
         <v>17</v>
       </c>
       <c r="S3" s="91">
         <v>18</v>
       </c>
-      <c r="T3" s="363" t="s">
-        <v>273</v>
+      <c r="T3" s="349" t="s">
+        <v>270</v>
       </c>
       <c r="U3" s="100">
         <v>20</v>
       </c>
-      <c r="V3" s="233">
+      <c r="V3" s="232">
         <v>21</v>
       </c>
       <c r="W3" s="91">
@@ -3185,7 +3191,7 @@
       <c r="Y3" s="100">
         <v>24</v>
       </c>
-      <c r="Z3" s="233">
+      <c r="Z3" s="232">
         <v>25</v>
       </c>
       <c r="AA3" s="99"/>
@@ -3197,11 +3203,11 @@
       <c r="A4" s="74">
         <v>1006</v>
       </c>
-      <c r="B4" s="235" t="s">
-        <v>181</v>
+      <c r="B4" s="234" t="s">
+        <v>179</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="193" t="s">
         <v>62</v>
@@ -3210,7 +3216,7 @@
         <v>11500</v>
       </c>
       <c r="F4" s="195"/>
-      <c r="G4" s="320"/>
+      <c r="G4" s="319"/>
       <c r="H4" s="196">
         <v>5750</v>
       </c>
@@ -3233,7 +3239,7 @@
         <v>12450</v>
       </c>
       <c r="T4" s="126" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="U4" s="99"/>
       <c r="V4" s="99"/>
@@ -3248,11 +3254,11 @@
       <c r="A5" s="74">
         <v>1019</v>
       </c>
-      <c r="B5" s="233" t="s">
-        <v>173</v>
+      <c r="B5" s="232" t="s">
+        <v>171</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="91" t="s">
         <v>62</v>
@@ -3261,7 +3267,7 @@
         <v>11500</v>
       </c>
       <c r="F5" s="100"/>
-      <c r="G5" s="319"/>
+      <c r="G5" s="318"/>
       <c r="H5" s="100">
         <v>5750</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>11250</v>
       </c>
       <c r="T5" s="197" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U5" s="84"/>
       <c r="V5" s="84"/>
@@ -3299,11 +3305,11 @@
       <c r="A6" s="74">
         <v>1020</v>
       </c>
-      <c r="B6" s="235" t="s">
-        <v>174</v>
+      <c r="B6" s="234" t="s">
+        <v>172</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="91" t="s">
         <v>62</v>
@@ -3312,7 +3318,7 @@
         <v>11500</v>
       </c>
       <c r="F6" s="100"/>
-      <c r="G6" s="319"/>
+      <c r="G6" s="318"/>
       <c r="H6" s="100">
         <v>5750</v>
       </c>
@@ -3334,8 +3340,8 @@
         <f t="shared" si="0"/>
         <v>11950</v>
       </c>
-      <c r="T6" s="199" t="s">
-        <v>145</v>
+      <c r="T6" s="198" t="s">
+        <v>144</v>
       </c>
       <c r="U6" s="84"/>
       <c r="V6" s="84"/>
@@ -3350,11 +3356,11 @@
       <c r="A7" s="74">
         <v>1021</v>
       </c>
-      <c r="B7" s="236" t="s">
-        <v>175</v>
+      <c r="B7" s="235" t="s">
+        <v>173</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="91" t="s">
         <v>62</v>
@@ -3363,7 +3369,7 @@
         <v>11500</v>
       </c>
       <c r="F7" s="100"/>
-      <c r="G7" s="319"/>
+      <c r="G7" s="318"/>
       <c r="H7" s="100">
         <v>5750</v>
       </c>
@@ -3389,8 +3395,8 @@
         <f t="shared" si="0"/>
         <v>11950</v>
       </c>
-      <c r="T7" s="200" t="s">
-        <v>108</v>
+      <c r="T7" s="199" t="s">
+        <v>107</v>
       </c>
       <c r="U7" s="84"/>
       <c r="V7" s="84"/>
@@ -3405,11 +3411,11 @@
       <c r="A8" s="74">
         <v>1022</v>
       </c>
-      <c r="B8" s="236" t="s">
-        <v>176</v>
+      <c r="B8" s="235" t="s">
+        <v>174</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="91" t="s">
         <v>62</v>
@@ -3418,7 +3424,7 @@
         <v>11500</v>
       </c>
       <c r="F8" s="100"/>
-      <c r="G8" s="319">
+      <c r="G8" s="318">
         <v>500</v>
       </c>
       <c r="H8" s="100">
@@ -3458,63 +3464,63 @@
       <c r="C9" s="149"/>
       <c r="D9" s="149"/>
       <c r="E9" s="141">
-        <f>SUM(E3:E8)</f>
+        <f t="shared" ref="E9:S9" si="1">SUM(E3:E8)</f>
         <v>57504</v>
       </c>
       <c r="F9" s="141">
-        <f>SUM(F3:F8)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G9" s="321">
-        <f>SUM(G3:G8)</f>
+      <c r="G9" s="320">
+        <f t="shared" si="1"/>
         <v>506</v>
       </c>
       <c r="H9" s="141">
-        <f>SUM(H3:H8)</f>
+        <f t="shared" si="1"/>
         <v>28757</v>
       </c>
       <c r="I9" s="141">
-        <f>SUM(I3:I8)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J9" s="141">
-        <f>SUM(J3:J8)</f>
+        <f t="shared" si="1"/>
         <v>509</v>
       </c>
       <c r="K9" s="141">
-        <f>SUM(K3:K8)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L9" s="141">
-        <f>SUM(L3:L8)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M9" s="141">
-        <f>SUM(M3:M8)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="N9" s="141">
-        <f>SUM(N3:N8)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="O9" s="141">
-        <f>SUM(O3:O8)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="P9" s="141">
-        <f>SUM(P3:P8)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="Q9" s="141">
-        <f>SUM(Q3:Q8)</f>
+        <f t="shared" si="1"/>
         <v>1116</v>
       </c>
       <c r="R9" s="141">
-        <f>SUM(R3:R8)</f>
+        <f t="shared" si="1"/>
         <v>31017</v>
       </c>
       <c r="S9" s="141">
-        <f>SUM(S3:S8)</f>
+        <f t="shared" si="1"/>
         <v>60868</v>
       </c>
       <c r="U9" s="84"/>
@@ -3531,7 +3537,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
@@ -3569,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="91"/>
       <c r="D11" s="91"/>
@@ -3591,7 +3597,7 @@
       <c r="Q11" s="100"/>
       <c r="R11" s="100"/>
       <c r="S11" s="100">
-        <f t="shared" ref="S11:S12" si="1">E11+F11+G11-H11-I11-J11-M11+O11+P11+Q11+R11</f>
+        <f t="shared" ref="S11:S12" si="2">E11+F11+G11-H11-I11-J11-M11+O11+P11+Q11+R11</f>
         <v>3250</v>
       </c>
       <c r="T11" s="148"/>
@@ -3609,7 +3615,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="91"/>
       <c r="D12" s="91"/>
@@ -3631,7 +3637,7 @@
       <c r="Q12" s="100"/>
       <c r="R12" s="100"/>
       <c r="S12" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="T12" s="148"/>
@@ -3861,10 +3867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="352" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="353"/>
+      <c r="A1" s="355" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="356"/>
       <c r="C1" s="150"/>
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
@@ -3975,14 +3981,14 @@
         <v>49</v>
       </c>
       <c r="AB2" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="74">
         <v>1001</v>
       </c>
-      <c r="B3" s="235">
+      <c r="B3" s="234">
         <v>1</v>
       </c>
       <c r="C3" s="74">
@@ -3991,7 +3997,7 @@
       <c r="D3" s="162">
         <v>3</v>
       </c>
-      <c r="E3" s="235">
+      <c r="E3" s="234">
         <v>4</v>
       </c>
       <c r="F3" s="74">
@@ -4000,7 +4006,7 @@
       <c r="G3" s="162">
         <v>6</v>
       </c>
-      <c r="H3" s="235">
+      <c r="H3" s="234">
         <v>7</v>
       </c>
       <c r="I3" s="74">
@@ -4009,7 +4015,7 @@
       <c r="J3" s="162">
         <v>9</v>
       </c>
-      <c r="K3" s="235">
+      <c r="K3" s="234">
         <v>10</v>
       </c>
       <c r="L3" s="74">
@@ -4018,7 +4024,7 @@
       <c r="M3" s="162">
         <v>12</v>
       </c>
-      <c r="N3" s="235">
+      <c r="N3" s="234">
         <v>13</v>
       </c>
       <c r="O3" s="74">
@@ -4027,7 +4033,7 @@
       <c r="P3" s="162">
         <v>15</v>
       </c>
-      <c r="Q3" s="235">
+      <c r="Q3" s="234">
         <v>16</v>
       </c>
       <c r="R3" s="74">
@@ -4036,8 +4042,8 @@
       <c r="S3" s="162">
         <v>18</v>
       </c>
-      <c r="T3" s="364" t="s">
-        <v>273</v>
+      <c r="T3" s="350" t="s">
+        <v>270</v>
       </c>
       <c r="U3" s="74">
         <v>20</v>
@@ -4045,7 +4051,7 @@
       <c r="V3" s="162">
         <v>21</v>
       </c>
-      <c r="W3" s="235">
+      <c r="W3" s="234">
         <v>22</v>
       </c>
       <c r="X3" s="74">
@@ -4054,7 +4060,7 @@
       <c r="Y3" s="162">
         <v>24</v>
       </c>
-      <c r="Z3" s="235">
+      <c r="Z3" s="234">
         <v>25</v>
       </c>
       <c r="AA3" s="74"/>
@@ -4066,14 +4072,14 @@
       <c r="A4" s="74">
         <v>1002</v>
       </c>
-      <c r="B4" s="235" t="s">
-        <v>177</v>
+      <c r="B4" s="234" t="s">
+        <v>175</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="162" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="178">
         <v>12360</v>
@@ -4108,7 +4114,7 @@
         <v>14448</v>
       </c>
       <c r="T4" s="126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U4" s="74"/>
       <c r="V4" s="74"/>
@@ -4125,14 +4131,14 @@
       <c r="A5" s="74">
         <v>1003</v>
       </c>
-      <c r="B5" s="235" t="s">
-        <v>178</v>
+      <c r="B5" s="234" t="s">
+        <v>176</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="178">
         <v>11500</v>
@@ -4165,7 +4171,7 @@
         <v>10276</v>
       </c>
       <c r="T5" s="126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U5" s="74"/>
       <c r="V5" s="74"/>
@@ -4184,14 +4190,14 @@
       <c r="A6" s="74">
         <v>1004</v>
       </c>
-      <c r="B6" s="235" t="s">
-        <v>179</v>
+      <c r="B6" s="234" t="s">
+        <v>177</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="180" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="134">
         <v>11500</v>
@@ -4224,7 +4230,7 @@
         <v>12188</v>
       </c>
       <c r="T6" s="184" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U6" s="74"/>
       <c r="V6" s="74"/>
@@ -4239,14 +4245,14 @@
       <c r="A7" s="74">
         <v>1005</v>
       </c>
-      <c r="B7" s="235" t="s">
-        <v>180</v>
+      <c r="B7" s="234" t="s">
+        <v>178</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="162" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="134">
         <v>12500</v>
@@ -4279,7 +4285,7 @@
         <v>14700</v>
       </c>
       <c r="T7" s="185" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W7" s="116"/>
       <c r="X7" s="116"/>
@@ -4296,45 +4302,45 @@
       <c r="A8" s="112">
         <v>1007</v>
       </c>
-      <c r="B8" s="238" t="s">
-        <v>182</v>
+      <c r="B8" s="237" t="s">
+        <v>180</v>
       </c>
       <c r="C8" s="112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="223">
+        <v>117</v>
+      </c>
+      <c r="E8" s="222">
         <v>11500</v>
       </c>
-      <c r="F8" s="224"/>
-      <c r="G8" s="226">
+      <c r="F8" s="223"/>
+      <c r="G8" s="225">
         <v>500</v>
       </c>
-      <c r="H8" s="226">
+      <c r="H8" s="225">
         <v>5750</v>
       </c>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="225"/>
-      <c r="O8" s="226"/>
-      <c r="P8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="225"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="225"/>
+      <c r="P8" s="226"/>
       <c r="Q8" s="129">
         <v>400</v>
       </c>
       <c r="R8" s="112">
         <v>3500</v>
       </c>
-      <c r="S8" s="226">
+      <c r="S8" s="225">
         <f t="shared" si="0"/>
         <v>10150</v>
       </c>
       <c r="T8" s="126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W8" s="74"/>
       <c r="X8" s="74"/>
@@ -4347,13 +4353,13 @@
       <c r="A9" s="74">
         <v>1073</v>
       </c>
-      <c r="B9" s="235" t="s">
-        <v>252</v>
+      <c r="B9" s="234" t="s">
+        <v>249</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="339"/>
+        <v>70</v>
+      </c>
+      <c r="D9" s="338"/>
       <c r="E9" s="178">
         <f>5750+1050</f>
         <v>6800</v>
@@ -4365,26 +4371,26 @@
       <c r="H9" s="127">
         <v>5750</v>
       </c>
-      <c r="I9" s="340"/>
-      <c r="J9" s="340"/>
-      <c r="K9" s="341"/>
-      <c r="L9" s="340"/>
+      <c r="I9" s="339"/>
+      <c r="J9" s="339"/>
+      <c r="K9" s="340"/>
+      <c r="L9" s="339"/>
       <c r="M9" s="127"/>
       <c r="N9" s="154"/>
       <c r="O9" s="127"/>
-      <c r="P9" s="334"/>
+      <c r="P9" s="333"/>
       <c r="Q9" s="133">
         <v>0</v>
       </c>
       <c r="R9" s="74">
         <v>0</v>
       </c>
-      <c r="S9" s="226">
+      <c r="S9" s="225">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
       <c r="T9" s="126" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W9" s="74"/>
       <c r="X9" s="74"/>
@@ -4397,47 +4403,47 @@
       <c r="A10" s="112">
         <v>1008</v>
       </c>
-      <c r="B10" s="238" t="s">
-        <v>183</v>
+      <c r="B10" s="237" t="s">
+        <v>181</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="223">
+        <v>146</v>
+      </c>
+      <c r="D10" s="228" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="222">
         <v>11500</v>
       </c>
-      <c r="F10" s="224"/>
-      <c r="G10" s="342">
+      <c r="F10" s="223"/>
+      <c r="G10" s="341">
         <v>0</v>
       </c>
-      <c r="H10" s="226">
+      <c r="H10" s="225">
         <v>5750</v>
       </c>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="226"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="226">
+      <c r="I10" s="227"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="227"/>
+      <c r="M10" s="225">
         <v>49</v>
       </c>
-      <c r="N10" s="225"/>
-      <c r="O10" s="226"/>
-      <c r="P10" s="227"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="225"/>
+      <c r="P10" s="226"/>
       <c r="Q10" s="129">
         <v>0</v>
       </c>
       <c r="R10" s="112">
         <v>2000</v>
       </c>
-      <c r="S10" s="226">
+      <c r="S10" s="225">
         <f t="shared" si="0"/>
         <v>7701</v>
       </c>
       <c r="T10" s="126" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W10" s="74"/>
       <c r="X10" s="74"/>
@@ -4450,14 +4456,14 @@
       <c r="A11" s="74">
         <v>1009</v>
       </c>
-      <c r="B11" s="235" t="s">
-        <v>184</v>
+      <c r="B11" s="234" t="s">
+        <v>182</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="180" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E11" s="134">
         <v>11500</v>
@@ -4492,7 +4498,7 @@
         <v>12250</v>
       </c>
       <c r="T11" s="126" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U11" s="74"/>
       <c r="V11" s="74"/>
@@ -4507,21 +4513,21 @@
         <v>60</v>
       </c>
       <c r="AC11" s="114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:29" s="114" customFormat="1">
       <c r="A12" s="74">
         <v>1010</v>
       </c>
-      <c r="B12" s="235" t="s">
-        <v>185</v>
+      <c r="B12" s="234" t="s">
+        <v>183</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="178">
         <v>11500</v>
@@ -4554,7 +4560,7 @@
         <v>15950</v>
       </c>
       <c r="T12" s="189" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U12" s="74"/>
       <c r="V12" s="74"/>
@@ -4573,14 +4579,14 @@
       <c r="A13" s="74">
         <v>1011</v>
       </c>
-      <c r="B13" s="235" t="s">
-        <v>186</v>
+      <c r="B13" s="234" t="s">
+        <v>184</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="178">
         <v>11500</v>
@@ -4613,7 +4619,7 @@
         <v>15950</v>
       </c>
       <c r="T13" s="65" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U13" s="114"/>
       <c r="V13" s="114"/>
@@ -4633,14 +4639,14 @@
       <c r="A14" s="74">
         <v>1012</v>
       </c>
-      <c r="B14" s="235" t="s">
-        <v>187</v>
+      <c r="B14" s="234" t="s">
+        <v>185</v>
       </c>
       <c r="C14" s="74" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="178">
         <v>11730</v>
@@ -4654,7 +4660,7 @@
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="127"/>
-      <c r="K14" s="220"/>
+      <c r="K14" s="219"/>
       <c r="L14" s="127"/>
       <c r="M14" s="133"/>
       <c r="N14" s="154"/>
@@ -4671,7 +4677,7 @@
         <v>12752</v>
       </c>
       <c r="T14" s="126" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="U14" s="74"/>
       <c r="V14" s="74"/>
@@ -4691,45 +4697,45 @@
       <c r="A15" s="112">
         <v>1014</v>
       </c>
-      <c r="B15" s="239" t="s">
-        <v>189</v>
+      <c r="B15" s="238" t="s">
+        <v>187</v>
       </c>
       <c r="C15" s="112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="223">
+        <v>127</v>
+      </c>
+      <c r="E15" s="222">
         <v>11500</v>
       </c>
-      <c r="F15" s="224"/>
-      <c r="G15" s="226">
+      <c r="F15" s="223"/>
+      <c r="G15" s="225">
         <v>500</v>
       </c>
-      <c r="H15" s="322">
+      <c r="H15" s="321">
         <v>5750</v>
       </c>
-      <c r="I15" s="225"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="226"/>
-      <c r="L15" s="226"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="322"/>
-      <c r="O15" s="290"/>
-      <c r="P15" s="227"/>
-      <c r="Q15" s="227">
+      <c r="I15" s="224"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="225"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="321"/>
+      <c r="O15" s="289"/>
+      <c r="P15" s="226"/>
+      <c r="Q15" s="226">
         <v>350</v>
       </c>
-      <c r="R15" s="327">
+      <c r="R15" s="326">
         <v>2000</v>
       </c>
-      <c r="S15" s="226">
+      <c r="S15" s="225">
         <f t="shared" si="0"/>
         <v>8600</v>
       </c>
       <c r="T15" s="186" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U15" s="74"/>
       <c r="V15" s="74"/>
@@ -4744,14 +4750,14 @@
       <c r="A16" s="74">
         <v>1015</v>
       </c>
-      <c r="B16" s="237" t="s">
-        <v>190</v>
+      <c r="B16" s="236" t="s">
+        <v>188</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="182" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="178">
         <v>11500</v>
@@ -4760,18 +4766,18 @@
       <c r="G16" s="127">
         <v>500</v>
       </c>
-      <c r="H16" s="323">
+      <c r="H16" s="322">
         <v>5750</v>
       </c>
       <c r="I16" s="154"/>
       <c r="J16" s="127"/>
       <c r="K16" s="127"/>
       <c r="L16" s="127"/>
-      <c r="M16" s="334"/>
-      <c r="N16" s="323"/>
-      <c r="O16" s="334"/>
-      <c r="P16" s="334"/>
-      <c r="Q16" s="334">
+      <c r="M16" s="333"/>
+      <c r="N16" s="322"/>
+      <c r="O16" s="333"/>
+      <c r="P16" s="333"/>
+      <c r="Q16" s="333">
         <v>350</v>
       </c>
       <c r="R16" s="182">
@@ -4782,7 +4788,7 @@
         <v>11688</v>
       </c>
       <c r="T16" s="186" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U16" s="74"/>
       <c r="V16" s="74"/>
@@ -4797,11 +4803,11 @@
       <c r="A17" s="74">
         <v>1074</v>
       </c>
-      <c r="B17" s="237" t="s">
-        <v>253</v>
+      <c r="B17" s="236" t="s">
+        <v>250</v>
       </c>
       <c r="C17" s="182" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D17" s="182"/>
       <c r="E17" s="178">
@@ -4811,18 +4817,18 @@
       <c r="G17" s="191">
         <v>0</v>
       </c>
-      <c r="H17" s="323">
+      <c r="H17" s="322">
         <v>5750</v>
       </c>
       <c r="I17" s="154"/>
       <c r="J17" s="127"/>
       <c r="K17" s="157"/>
       <c r="L17" s="127"/>
-      <c r="M17" s="334"/>
-      <c r="N17" s="323"/>
-      <c r="O17" s="334"/>
-      <c r="P17" s="334"/>
-      <c r="Q17" s="334">
+      <c r="M17" s="333"/>
+      <c r="N17" s="322"/>
+      <c r="O17" s="333"/>
+      <c r="P17" s="333"/>
+      <c r="Q17" s="333">
         <v>0</v>
       </c>
       <c r="R17" s="182">
@@ -4833,7 +4839,7 @@
         <v>5750</v>
       </c>
       <c r="T17" s="186" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U17" s="74"/>
       <c r="V17" s="74"/>
@@ -4848,14 +4854,14 @@
       <c r="A18" s="74">
         <v>1016</v>
       </c>
-      <c r="B18" s="235" t="s">
-        <v>191</v>
+      <c r="B18" s="234" t="s">
+        <v>189</v>
       </c>
       <c r="C18" s="74" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="183" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="178">
         <f>16500+2500</f>
@@ -4872,7 +4878,7 @@
       </c>
       <c r="I18" s="127"/>
       <c r="J18" s="127"/>
-      <c r="K18" s="219"/>
+      <c r="K18" s="218"/>
       <c r="L18" s="127">
         <v>3000</v>
       </c>
@@ -4984,7 +4990,7 @@
     <row r="20" spans="1:28" s="114" customFormat="1">
       <c r="A20" s="116"/>
       <c r="B20" s="74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
@@ -5029,7 +5035,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -5075,7 +5081,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -5121,7 +5127,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="116"/>
       <c r="D23" s="116"/>
@@ -5225,7 +5231,7 @@
         <f t="shared" si="2"/>
         <v>85704</v>
       </c>
-      <c r="S24" s="345">
+      <c r="S24" s="344">
         <f>S19+S20+S21+S22+S23-S18</f>
         <v>183721</v>
       </c>
@@ -5241,7 +5247,7 @@
     </row>
     <row r="25" spans="1:28">
       <c r="O25" s="110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -5504,7 +5510,7 @@
   <dimension ref="A2:AB39"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="19"/>
@@ -5543,58 +5549,58 @@
       <c r="A2" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="247" t="s">
+      <c r="C2" s="246" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="247" t="s">
+      <c r="D2" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="247" t="s">
+      <c r="E2" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="247" t="s">
+      <c r="F2" s="246" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="247" t="s">
+      <c r="G2" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="247" t="s">
+      <c r="H2" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="247" t="s">
+      <c r="I2" s="246" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="247" t="s">
+      <c r="J2" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="247" t="s">
+      <c r="K2" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="247" t="s">
+      <c r="L2" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="247" t="s">
+      <c r="M2" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="247" t="s">
+      <c r="N2" s="246" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="247" t="s">
+      <c r="O2" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="247" t="s">
+      <c r="P2" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="247" t="s">
+      <c r="Q2" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="247" t="s">
+      <c r="R2" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="247" t="s">
+      <c r="S2" s="246" t="s">
         <v>10</v>
       </c>
       <c r="T2" s="137" t="s">
@@ -5622,17 +5628,17 @@
         <v>49</v>
       </c>
       <c r="AB2" s="137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="33" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="74">
         <v>1023</v>
       </c>
-      <c r="B3" s="240">
+      <c r="B3" s="239">
         <v>1</v>
       </c>
-      <c r="C3" s="291">
+      <c r="C3" s="290">
         <v>2</v>
       </c>
       <c r="D3" s="162">
@@ -5641,10 +5647,10 @@
       <c r="E3" s="163">
         <v>4</v>
       </c>
-      <c r="F3" s="240">
+      <c r="F3" s="239">
         <v>5</v>
       </c>
-      <c r="G3" s="291">
+      <c r="G3" s="290">
         <v>6</v>
       </c>
       <c r="H3" s="162">
@@ -5653,10 +5659,10 @@
       <c r="I3" s="163">
         <v>8</v>
       </c>
-      <c r="J3" s="240">
+      <c r="J3" s="239">
         <v>9</v>
       </c>
-      <c r="K3" s="291">
+      <c r="K3" s="290">
         <v>10</v>
       </c>
       <c r="L3" s="162">
@@ -5665,10 +5671,10 @@
       <c r="M3" s="163">
         <v>12</v>
       </c>
-      <c r="N3" s="240">
+      <c r="N3" s="239">
         <v>13</v>
       </c>
-      <c r="O3" s="291">
+      <c r="O3" s="290">
         <v>14</v>
       </c>
       <c r="P3" s="162">
@@ -5677,22 +5683,22 @@
       <c r="Q3" s="163">
         <v>16</v>
       </c>
-      <c r="R3" s="240">
+      <c r="R3" s="239">
         <v>17</v>
       </c>
-      <c r="S3" s="291">
+      <c r="S3" s="290">
         <v>18</v>
       </c>
       <c r="T3" s="65" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U3" s="163">
         <v>20</v>
       </c>
-      <c r="V3" s="240">
+      <c r="V3" s="239">
         <v>21</v>
       </c>
-      <c r="W3" s="291">
+      <c r="W3" s="290">
         <v>22</v>
       </c>
       <c r="X3" s="162">
@@ -5701,7 +5707,7 @@
       <c r="Y3" s="163">
         <v>24</v>
       </c>
-      <c r="Z3" s="240">
+      <c r="Z3" s="239">
         <v>25</v>
       </c>
       <c r="AA3" s="137" t="s">
@@ -5715,19 +5721,19 @@
       <c r="A4" s="74">
         <v>1024</v>
       </c>
-      <c r="B4" s="292" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="293" t="s">
-        <v>95</v>
+      <c r="B4" s="291" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="292" t="s">
+        <v>94</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="163">
         <v>12500</v>
       </c>
-      <c r="F4" s="297">
+      <c r="F4" s="296">
         <v>1500</v>
       </c>
       <c r="G4" s="127">
@@ -5757,7 +5763,7 @@
         <v>16175</v>
       </c>
       <c r="T4" s="189" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U4" s="143" t="e">
         <f>#REF!</f>
@@ -5779,19 +5785,19 @@
       <c r="A5" s="74">
         <v>1025</v>
       </c>
-      <c r="B5" s="294" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="208" t="s">
-        <v>94</v>
+      <c r="B5" s="293" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="207" t="s">
+        <v>93</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="163">
         <v>12500</v>
       </c>
-      <c r="F5" s="298"/>
+      <c r="F5" s="297"/>
       <c r="G5" s="127">
         <v>500</v>
       </c>
@@ -5819,7 +5825,7 @@
         <v>14950</v>
       </c>
       <c r="T5" s="175" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U5" s="137" t="e">
         <f>#REF!</f>
@@ -5841,29 +5847,29 @@
       <c r="A6" s="112">
         <v>1026</v>
       </c>
-      <c r="B6" s="329" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="330" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="245" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="246">
+      <c r="B6" s="328" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="329" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="244" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="245">
         <v>12000</v>
       </c>
-      <c r="F6" s="299"/>
+      <c r="F6" s="298"/>
       <c r="G6" s="127">
         <v>500</v>
       </c>
-      <c r="H6" s="226">
+      <c r="H6" s="225">
         <v>6000</v>
       </c>
-      <c r="I6" s="226"/>
-      <c r="J6" s="331"/>
-      <c r="K6" s="332"/>
-      <c r="L6" s="226"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="331"/>
+      <c r="L6" s="225"/>
       <c r="M6" s="129">
         <v>0</v>
       </c>
@@ -5873,15 +5879,15 @@
       <c r="Q6" s="129">
         <v>400</v>
       </c>
-      <c r="R6" s="226">
+      <c r="R6" s="225">
         <v>6000</v>
       </c>
-      <c r="S6" s="243">
+      <c r="S6" s="242">
         <f t="shared" si="0"/>
         <v>12900</v>
       </c>
       <c r="T6" s="189" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U6" s="137">
         <v>0</v>
@@ -5895,50 +5901,50 @@
       <c r="AB6" s="137"/>
     </row>
     <row r="7" spans="1:28" s="33" customFormat="1" ht="22" customHeight="1">
-      <c r="A7" s="311">
+      <c r="A7" s="310">
         <v>1028</v>
       </c>
-      <c r="B7" s="312" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="313" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="313" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="314">
+      <c r="B7" s="311" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="312" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="312" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="313">
         <v>12000</v>
       </c>
-      <c r="F7" s="315"/>
+      <c r="F7" s="314"/>
       <c r="G7" s="127">
         <v>500</v>
       </c>
-      <c r="H7" s="226">
+      <c r="H7" s="225">
         <v>6000</v>
       </c>
-      <c r="I7" s="317"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="232">
+      <c r="I7" s="316"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="315"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="231">
         <v>0</v>
       </c>
       <c r="N7" s="129"/>
       <c r="O7" s="129"/>
-      <c r="P7" s="232"/>
+      <c r="P7" s="231"/>
       <c r="Q7" s="129">
         <v>400</v>
       </c>
-      <c r="R7" s="226">
+      <c r="R7" s="225">
         <v>2000</v>
       </c>
-      <c r="S7" s="318">
+      <c r="S7" s="317">
         <f t="shared" si="0"/>
         <v>8900</v>
       </c>
       <c r="T7" s="189" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="U7" s="137"/>
       <c r="V7" s="137"/>
@@ -5953,29 +5959,29 @@
       <c r="A8" s="112">
         <v>1029</v>
       </c>
-      <c r="B8" s="244" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="245" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="245" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="246">
+      <c r="B8" s="243" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="244" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="244" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="245">
         <v>12000</v>
       </c>
-      <c r="F8" s="299"/>
+      <c r="F8" s="298"/>
       <c r="G8" s="127">
         <v>500</v>
       </c>
-      <c r="H8" s="226">
+      <c r="H8" s="225">
         <v>6000</v>
       </c>
-      <c r="I8" s="224"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="225"/>
       <c r="M8" s="129">
         <v>0</v>
       </c>
@@ -5985,15 +5991,15 @@
       <c r="Q8" s="129">
         <v>400</v>
       </c>
-      <c r="R8" s="226">
+      <c r="R8" s="225">
         <v>7250</v>
       </c>
-      <c r="S8" s="243">
+      <c r="S8" s="242">
         <f t="shared" si="0"/>
         <v>14150</v>
       </c>
       <c r="T8" s="189" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U8" s="137">
         <v>0</v>
@@ -6014,17 +6020,17 @@
       <c r="A9" s="74">
         <v>1030</v>
       </c>
-      <c r="B9" s="233" t="s">
-        <v>197</v>
+      <c r="B9" s="232" t="s">
+        <v>195</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="162"/>
       <c r="E9" s="163">
         <v>12000</v>
       </c>
-      <c r="F9" s="298"/>
+      <c r="F9" s="297"/>
       <c r="G9" s="127">
         <v>500</v>
       </c>
@@ -6052,7 +6058,7 @@
         <v>10400</v>
       </c>
       <c r="T9" s="189" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U9" s="137"/>
       <c r="V9" s="137"/>
@@ -6067,23 +6073,23 @@
       <c r="A10" s="112">
         <v>1031</v>
       </c>
-      <c r="B10" s="238" t="s">
-        <v>198</v>
+      <c r="B10" s="237" t="s">
+        <v>196</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="246">
+        <v>116</v>
+      </c>
+      <c r="E10" s="245">
         <v>12000</v>
       </c>
-      <c r="F10" s="300"/>
+      <c r="F10" s="299"/>
       <c r="G10" s="127">
         <v>500</v>
       </c>
-      <c r="H10" s="226">
+      <c r="H10" s="225">
         <v>6000</v>
       </c>
       <c r="I10" s="112"/>
@@ -6096,18 +6102,18 @@
       <c r="N10" s="112"/>
       <c r="O10" s="129"/>
       <c r="P10" s="129"/>
-      <c r="Q10" s="232">
+      <c r="Q10" s="231">
         <v>425</v>
       </c>
       <c r="R10" s="112">
         <v>6000</v>
       </c>
-      <c r="S10" s="243">
+      <c r="S10" s="242">
         <f t="shared" si="0"/>
         <v>12925</v>
       </c>
       <c r="T10" s="189" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="U10" s="137" t="e">
         <f>#REF!</f>
@@ -6129,17 +6135,17 @@
       <c r="A11" s="74">
         <v>1067</v>
       </c>
-      <c r="B11" s="235" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="333" t="s">
-        <v>234</v>
+      <c r="B11" s="234" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="332" t="s">
+        <v>232</v>
       </c>
       <c r="D11" s="74"/>
       <c r="E11" s="163">
         <v>12000</v>
       </c>
-      <c r="F11" s="297"/>
+      <c r="F11" s="296"/>
       <c r="G11" s="127">
         <v>500</v>
       </c>
@@ -6160,12 +6166,12 @@
       <c r="R11" s="74">
         <v>1000</v>
       </c>
-      <c r="S11" s="335">
+      <c r="S11" s="334">
         <f t="shared" si="0"/>
         <v>7850</v>
       </c>
       <c r="T11" s="189" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="U11" s="137"/>
       <c r="V11" s="137"/>
@@ -6180,17 +6186,17 @@
       <c r="A12" s="74">
         <v>1032</v>
       </c>
-      <c r="B12" s="235" t="s">
-        <v>199</v>
+      <c r="B12" s="234" t="s">
+        <v>197</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="74"/>
       <c r="E12" s="163">
         <v>12000</v>
       </c>
-      <c r="F12" s="297">
+      <c r="F12" s="296">
         <v>500</v>
       </c>
       <c r="G12" s="127">
@@ -6220,7 +6226,7 @@
         <v>10900</v>
       </c>
       <c r="T12" s="189" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U12" s="137"/>
       <c r="V12" s="137"/>
@@ -6235,17 +6241,17 @@
       <c r="A13" s="74">
         <v>1033</v>
       </c>
-      <c r="B13" s="235" t="s">
-        <v>200</v>
+      <c r="B13" s="234" t="s">
+        <v>198</v>
       </c>
       <c r="C13" s="162" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="162"/>
       <c r="E13" s="163">
         <v>12000</v>
       </c>
-      <c r="F13" s="296">
+      <c r="F13" s="295">
         <v>4000</v>
       </c>
       <c r="G13" s="127">
@@ -6277,7 +6283,7 @@
         <v>21500</v>
       </c>
       <c r="T13" s="189" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U13" s="137"/>
       <c r="V13" s="137"/>
@@ -6292,14 +6298,14 @@
       <c r="A14" s="74">
         <v>1034</v>
       </c>
-      <c r="B14" s="235" t="s">
-        <v>201</v>
+      <c r="B14" s="234" t="s">
+        <v>199</v>
       </c>
       <c r="C14" s="74" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14" s="163">
         <v>12300</v>
@@ -6334,7 +6340,7 @@
         <v>16550</v>
       </c>
       <c r="T14" s="189" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U14" s="137" t="e">
         <f>#REF!</f>
@@ -6352,19 +6358,19 @@
       <c r="A15" s="74">
         <v>1035</v>
       </c>
-      <c r="B15" s="235" t="s">
-        <v>202</v>
+      <c r="B15" s="234" t="s">
+        <v>200</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="163">
         <v>12000</v>
       </c>
-      <c r="F15" s="297"/>
+      <c r="F15" s="296"/>
       <c r="G15" s="127">
         <v>500</v>
       </c>
@@ -6394,7 +6400,7 @@
         <v>12800</v>
       </c>
       <c r="T15" s="189" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U15" s="137"/>
       <c r="V15" s="137"/>
@@ -6409,19 +6415,19 @@
       <c r="A16" s="74">
         <v>1036</v>
       </c>
-      <c r="B16" s="235" t="s">
-        <v>203</v>
+      <c r="B16" s="234" t="s">
+        <v>201</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="171">
         <v>12000</v>
       </c>
-      <c r="F16" s="297"/>
+      <c r="F16" s="296"/>
       <c r="G16" s="127">
         <v>500</v>
       </c>
@@ -6449,7 +6455,7 @@
         <v>14300</v>
       </c>
       <c r="T16" s="190" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U16" s="137"/>
       <c r="V16" s="137"/>
@@ -6464,19 +6470,19 @@
       <c r="A17" s="74">
         <v>1037</v>
       </c>
-      <c r="B17" s="235" t="s">
-        <v>204</v>
+      <c r="B17" s="234" t="s">
+        <v>202</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="171">
         <v>12000</v>
       </c>
-      <c r="F17" s="301"/>
+      <c r="F17" s="300"/>
       <c r="G17" s="191">
         <v>0</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>13050</v>
       </c>
       <c r="T17" s="176" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U17" s="137"/>
       <c r="V17" s="137"/>
@@ -6521,21 +6527,21 @@
       <c r="A18" s="112">
         <v>1038</v>
       </c>
-      <c r="B18" s="238" t="s">
-        <v>205</v>
+      <c r="B18" s="237" t="s">
+        <v>203</v>
       </c>
       <c r="C18" s="112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="112"/>
-      <c r="E18" s="241">
+      <c r="E18" s="240">
         <v>12000</v>
       </c>
-      <c r="F18" s="302"/>
+      <c r="F18" s="301"/>
       <c r="G18" s="191">
         <v>0</v>
       </c>
-      <c r="H18" s="226">
+      <c r="H18" s="225">
         <v>6000</v>
       </c>
       <c r="I18" s="112"/>
@@ -6547,19 +6553,19 @@
       </c>
       <c r="N18" s="112"/>
       <c r="O18" s="129"/>
-      <c r="P18" s="242"/>
-      <c r="Q18" s="232">
+      <c r="P18" s="241"/>
+      <c r="Q18" s="231">
         <v>350</v>
       </c>
       <c r="R18" s="112">
         <v>1600</v>
       </c>
-      <c r="S18" s="243">
+      <c r="S18" s="242">
         <f t="shared" si="0"/>
         <v>7950</v>
       </c>
       <c r="T18" s="190" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U18" s="137"/>
       <c r="V18" s="137"/>
@@ -6574,19 +6580,19 @@
       <c r="A19" s="74">
         <v>1039</v>
       </c>
-      <c r="B19" s="235" t="s">
-        <v>206</v>
+      <c r="B19" s="234" t="s">
+        <v>204</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="169">
         <v>12000</v>
       </c>
-      <c r="F19" s="297"/>
+      <c r="F19" s="296"/>
       <c r="G19" s="127">
         <v>500</v>
       </c>
@@ -6614,7 +6620,7 @@
         <v>14400</v>
       </c>
       <c r="T19" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U19" s="137"/>
       <c r="V19" s="137"/>
@@ -6627,30 +6633,30 @@
     </row>
     <row r="20" spans="1:28" s="33" customFormat="1" ht="11.5" customHeight="1">
       <c r="A20" s="136"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="249"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="248"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="248"/>
-      <c r="K20" s="247"/>
-      <c r="L20" s="247"/>
-      <c r="M20" s="247">
+      <c r="B20" s="246"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="247"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="247"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="246"/>
+      <c r="M20" s="246">
         <f t="shared" ref="M20" si="1">(E20/30)*U20 + V20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="247"/>
-      <c r="O20" s="247"/>
-      <c r="P20" s="247">
+      <c r="N20" s="246"/>
+      <c r="O20" s="246"/>
+      <c r="P20" s="246">
         <f t="shared" ref="P20" si="2">Z20*AB20</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="247"/>
-      <c r="R20" s="247"/>
-      <c r="S20" s="247">
+      <c r="Q20" s="246"/>
+      <c r="R20" s="246"/>
+      <c r="S20" s="246">
         <f t="shared" ref="S20" si="3">E20+F20+G20-H20-I20-J20+L20-M20+N20+O20+Q20+R20+P20</f>
         <v>0</v>
       </c>
@@ -6742,7 +6748,7 @@
     <row r="22" spans="1:28" s="33" customFormat="1" ht="17" customHeight="1">
       <c r="A22" s="166"/>
       <c r="B22" s="134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="134"/>
       <c r="D22" s="134"/>
@@ -6751,9 +6757,9 @@
       </c>
       <c r="F22" s="134"/>
       <c r="G22" s="134"/>
-      <c r="H22" s="250"/>
+      <c r="H22" s="249"/>
       <c r="I22" s="172"/>
-      <c r="J22" s="250"/>
+      <c r="J22" s="249"/>
       <c r="K22" s="134"/>
       <c r="L22" s="134"/>
       <c r="M22" s="179"/>
@@ -6779,7 +6785,7 @@
     <row r="23" spans="1:28" ht="22" customHeight="1">
       <c r="A23" s="116"/>
       <c r="B23" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
@@ -6823,7 +6829,7 @@
     <row r="24" spans="1:28" ht="22" customHeight="1">
       <c r="A24" s="116"/>
       <c r="B24" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
@@ -6867,7 +6873,7 @@
     <row r="25" spans="1:28" ht="22" customHeight="1">
       <c r="A25" s="116"/>
       <c r="B25" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="116"/>
       <c r="D25" s="116"/>
@@ -6898,7 +6904,7 @@
         <f>E25+F25+G25-H25-I25-J25+L25-M25+N25+O25+Q25+R25+P25</f>
         <v>12000</v>
       </c>
-      <c r="T25" s="346">
+      <c r="T25" s="345">
         <f>S21+S22+S23+S24+S25</f>
         <v>241968</v>
       </c>
@@ -6910,7 +6916,7 @@
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
       <c r="G26" s="121"/>
-      <c r="H26" s="295"/>
+      <c r="H26" s="294"/>
       <c r="I26" s="121"/>
       <c r="J26" s="121"/>
       <c r="K26" s="121"/>
@@ -7087,10 +7093,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="22" customHeight="1">
-      <c r="A1" s="354" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="355"/>
+      <c r="A1" s="357" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="358"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
@@ -7138,7 +7144,7 @@
       <c r="I2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="247" t="s">
+      <c r="J2" s="246" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="39" t="s">
@@ -7193,14 +7199,14 @@
         <v>49</v>
       </c>
       <c r="AB2" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="33" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="74">
         <v>1040</v>
       </c>
-      <c r="B3" s="234">
+      <c r="B3" s="233">
         <v>1</v>
       </c>
       <c r="C3" s="78">
@@ -7209,7 +7215,7 @@
       <c r="D3" s="162">
         <v>3</v>
       </c>
-      <c r="E3" s="234">
+      <c r="E3" s="233">
         <v>4</v>
       </c>
       <c r="F3" s="78">
@@ -7218,7 +7224,7 @@
       <c r="G3" s="162">
         <v>6</v>
       </c>
-      <c r="H3" s="234">
+      <c r="H3" s="233">
         <v>7</v>
       </c>
       <c r="I3" s="78">
@@ -7227,7 +7233,7 @@
       <c r="J3" s="162">
         <v>9</v>
       </c>
-      <c r="K3" s="234">
+      <c r="K3" s="233">
         <v>10</v>
       </c>
       <c r="L3" s="78">
@@ -7236,7 +7242,7 @@
       <c r="M3" s="162">
         <v>12</v>
       </c>
-      <c r="N3" s="234">
+      <c r="N3" s="233">
         <v>13</v>
       </c>
       <c r="O3" s="78">
@@ -7245,7 +7251,7 @@
       <c r="P3" s="162">
         <v>15</v>
       </c>
-      <c r="Q3" s="234">
+      <c r="Q3" s="233">
         <v>16</v>
       </c>
       <c r="R3" s="78">
@@ -7254,10 +7260,10 @@
       <c r="S3" s="162">
         <v>18</v>
       </c>
-      <c r="T3" s="365" t="s">
-        <v>273</v>
-      </c>
-      <c r="U3" s="234">
+      <c r="T3" s="351" t="s">
+        <v>270</v>
+      </c>
+      <c r="U3" s="233">
         <v>20</v>
       </c>
       <c r="V3" s="78">
@@ -7266,7 +7272,7 @@
       <c r="W3" s="162">
         <v>22</v>
       </c>
-      <c r="X3" s="234">
+      <c r="X3" s="233">
         <v>23</v>
       </c>
       <c r="Y3" s="78">
@@ -7286,14 +7292,14 @@
       <c r="A4" s="74">
         <v>1041</v>
       </c>
-      <c r="B4" s="234" t="s">
-        <v>207</v>
+      <c r="B4" s="233" t="s">
+        <v>205</v>
       </c>
       <c r="C4" s="78" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="80">
         <v>11730</v>
@@ -7315,7 +7321,7 @@
         <f t="shared" ref="M4" si="0">(E4/30)*U4 + V4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="303"/>
+      <c r="N4" s="302"/>
       <c r="O4" s="133"/>
       <c r="P4" s="133">
         <v>1500</v>
@@ -7331,7 +7337,7 @@
         <v>24655</v>
       </c>
       <c r="T4" s="117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U4" s="70"/>
       <c r="V4" s="70"/>
@@ -7352,14 +7358,14 @@
       <c r="A5" s="74">
         <v>1013</v>
       </c>
-      <c r="B5" s="235" t="s">
-        <v>188</v>
+      <c r="B5" s="234" t="s">
+        <v>186</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" s="81">
         <v>11730</v>
@@ -7383,7 +7389,7 @@
       </c>
       <c r="N5" s="154"/>
       <c r="O5" s="192"/>
-      <c r="P5" s="336">
+      <c r="P5" s="335">
         <v>1440</v>
       </c>
       <c r="Q5" s="74">
@@ -7397,7 +7403,7 @@
         <v>17757</v>
       </c>
       <c r="T5" s="186" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="U5" s="68"/>
       <c r="V5" s="68"/>
@@ -7416,14 +7422,14 @@
       <c r="A6" s="74">
         <v>1043</v>
       </c>
-      <c r="B6" s="235" t="s">
-        <v>209</v>
+      <c r="B6" s="234" t="s">
+        <v>207</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="81">
         <v>11500</v>
@@ -7443,7 +7449,7 @@
         <f>(E6/30)*U6 + V6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="303"/>
+      <c r="N6" s="302"/>
       <c r="O6" s="133"/>
       <c r="P6" s="133">
         <v>1500</v>
@@ -7458,8 +7464,8 @@
         <f t="shared" si="1"/>
         <v>26037</v>
       </c>
-      <c r="T6" s="337" t="s">
-        <v>98</v>
+      <c r="T6" s="336" t="s">
+        <v>97</v>
       </c>
       <c r="U6" s="68"/>
       <c r="V6" s="68"/>
@@ -7474,31 +7480,31 @@
       <c r="A7" s="112">
         <v>1044</v>
       </c>
-      <c r="B7" s="261" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="256" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="313" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="262">
+      <c r="B7" s="260" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="255" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="312" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="261">
         <v>11500</v>
       </c>
-      <c r="F7" s="254"/>
-      <c r="G7" s="226">
+      <c r="F7" s="253"/>
+      <c r="G7" s="225">
         <v>500</v>
       </c>
-      <c r="H7" s="226">
+      <c r="H7" s="225">
         <v>5750</v>
       </c>
-      <c r="I7" s="256"/>
-      <c r="J7" s="256"/>
-      <c r="K7" s="263"/>
-      <c r="L7" s="263"/>
-      <c r="M7" s="257"/>
-      <c r="N7" s="304"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255"/>
+      <c r="K7" s="262"/>
+      <c r="L7" s="262"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="303"/>
       <c r="O7" s="129"/>
       <c r="P7" s="129">
         <v>1500</v>
@@ -7506,15 +7512,15 @@
       <c r="Q7" s="129">
         <v>750</v>
       </c>
-      <c r="R7" s="226">
+      <c r="R7" s="225">
         <v>10250</v>
       </c>
-      <c r="S7" s="254">
+      <c r="S7" s="253">
         <f t="shared" si="1"/>
         <v>18750</v>
       </c>
-      <c r="T7" s="337" t="s">
-        <v>257</v>
+      <c r="T7" s="336" t="s">
+        <v>254</v>
       </c>
       <c r="U7" s="68"/>
       <c r="V7" s="68"/>
@@ -7529,14 +7535,14 @@
       <c r="A8" s="74">
         <v>1045</v>
       </c>
-      <c r="B8" s="235" t="s">
-        <v>211</v>
+      <c r="B8" s="234" t="s">
+        <v>209</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="130">
         <v>11500</v>
@@ -7556,7 +7562,7 @@
         <f>(E8/30)*U8 + V8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="303"/>
+      <c r="N8" s="302"/>
       <c r="O8" s="133"/>
       <c r="P8" s="133">
         <v>1500</v>
@@ -7571,8 +7577,8 @@
         <f t="shared" si="1"/>
         <v>18475</v>
       </c>
-      <c r="T8" s="348" t="s">
-        <v>258</v>
+      <c r="T8" s="347" t="s">
+        <v>255</v>
       </c>
       <c r="U8" s="74"/>
       <c r="V8" s="74"/>
@@ -7587,26 +7593,26 @@
       <c r="A9" s="74">
         <v>1046</v>
       </c>
-      <c r="B9" s="234" t="s">
-        <v>212</v>
+      <c r="B9" s="233" t="s">
+        <v>210</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="80">
         <v>11730</v>
       </c>
-      <c r="F9" s="230"/>
+      <c r="F9" s="229"/>
       <c r="G9" s="127">
         <v>500</v>
       </c>
       <c r="H9" s="127">
         <v>5750</v>
       </c>
-      <c r="I9" s="231">
+      <c r="I9" s="230">
         <v>575</v>
       </c>
       <c r="J9" s="59"/>
@@ -7616,7 +7622,7 @@
         <f>(E9/30)*U9 + V9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="303"/>
+      <c r="N9" s="302"/>
       <c r="O9" s="133"/>
       <c r="P9" s="133">
         <v>1500</v>
@@ -7632,7 +7638,7 @@
         <v>22455</v>
       </c>
       <c r="T9" s="188" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U9" s="70"/>
       <c r="V9" s="74"/>
@@ -7653,31 +7659,31 @@
       <c r="A10" s="112">
         <v>1047</v>
       </c>
-      <c r="B10" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="252" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="245" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="258">
+      <c r="B10" s="237" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="251" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="244" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="257">
         <v>11500</v>
       </c>
-      <c r="F10" s="259"/>
-      <c r="G10" s="226">
+      <c r="F10" s="258"/>
+      <c r="G10" s="225">
         <v>500</v>
       </c>
-      <c r="H10" s="226">
+      <c r="H10" s="225">
         <v>5750</v>
       </c>
-      <c r="I10" s="260"/>
-      <c r="J10" s="255"/>
-      <c r="K10" s="255"/>
-      <c r="L10" s="255"/>
-      <c r="M10" s="257"/>
-      <c r="N10" s="225"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="224"/>
       <c r="O10" s="129"/>
       <c r="P10" s="129">
         <v>1500</v>
@@ -7685,15 +7691,15 @@
       <c r="Q10" s="129">
         <v>250</v>
       </c>
-      <c r="R10" s="226">
+      <c r="R10" s="225">
         <v>5513</v>
       </c>
-      <c r="S10" s="254">
+      <c r="S10" s="253">
         <f t="shared" si="2"/>
         <v>13513</v>
       </c>
       <c r="T10" s="188" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="U10" s="70"/>
       <c r="V10" s="73"/>
@@ -7714,14 +7720,14 @@
       <c r="A11" s="74">
         <v>1048</v>
       </c>
-      <c r="B11" s="235" t="s">
-        <v>214</v>
+      <c r="B11" s="234" t="s">
+        <v>212</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" s="81">
         <v>11500</v>
@@ -7755,8 +7761,8 @@
         <f>E11+F11+G11-H11-I11-J11+L11-M11+N11+O11+Q11+R11+P11</f>
         <v>25250</v>
       </c>
-      <c r="T11" s="349" t="s">
-        <v>76</v>
+      <c r="T11" s="348" t="s">
+        <v>75</v>
       </c>
       <c r="U11" s="70"/>
       <c r="V11" s="73"/>
@@ -7777,14 +7783,14 @@
       <c r="A12" s="74">
         <v>1049</v>
       </c>
-      <c r="B12" s="235" t="s">
-        <v>215</v>
+      <c r="B12" s="234" t="s">
+        <v>213</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="162" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E12" s="81">
         <v>11500</v>
@@ -7813,7 +7819,7 @@
       <c r="P12" s="127">
         <v>1380</v>
       </c>
-      <c r="Q12" s="343">
+      <c r="Q12" s="342">
         <v>0</v>
       </c>
       <c r="R12" s="74">
@@ -7823,8 +7829,8 @@
         <f>E12+F12+G12-H12-I12-J12+L12-M12+N12+O12+Q12+R12+P12</f>
         <v>22867</v>
       </c>
-      <c r="T12" s="349" t="s">
-        <v>75</v>
+      <c r="T12" s="348" t="s">
+        <v>74</v>
       </c>
       <c r="U12" s="73"/>
       <c r="V12" s="73"/>
@@ -7843,14 +7849,14 @@
       <c r="A13" s="74">
         <v>1050</v>
       </c>
-      <c r="B13" s="234" t="s">
-        <v>216</v>
+      <c r="B13" s="233" t="s">
+        <v>214</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="57">
         <v>11500</v>
@@ -7883,7 +7889,7 @@
         <v>19945</v>
       </c>
       <c r="T13" s="188" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U13" s="73"/>
       <c r="V13" s="73"/>
@@ -7902,33 +7908,33 @@
       <c r="A14" s="112">
         <v>1051</v>
       </c>
-      <c r="B14" s="251" t="s">
+      <c r="B14" s="250" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="251" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="252" t="s">
-        <v>219</v>
-      </c>
       <c r="D14" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="253">
+        <v>220</v>
+      </c>
+      <c r="E14" s="252">
         <v>11500</v>
       </c>
-      <c r="F14" s="254"/>
-      <c r="G14" s="226">
+      <c r="F14" s="253"/>
+      <c r="G14" s="225">
         <v>500</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="225">
         <v>5750</v>
       </c>
-      <c r="I14" s="255"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="225"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="255"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="224"/>
       <c r="O14" s="129"/>
-      <c r="P14" s="226">
+      <c r="P14" s="225">
         <v>1500</v>
       </c>
       <c r="Q14" s="129">
@@ -7937,12 +7943,12 @@
       <c r="R14" s="112">
         <v>5513</v>
       </c>
-      <c r="S14" s="255">
+      <c r="S14" s="254">
         <f>E14+F14+G14-H14-I14-J14+L14-M14+N14+O14+Q14+R14+P14</f>
         <v>13613</v>
       </c>
       <c r="T14" s="126" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U14" s="73"/>
       <c r="V14" s="73"/>
@@ -7957,14 +7963,14 @@
       <c r="A15" s="74">
         <v>1052</v>
       </c>
-      <c r="B15" s="234" t="s">
-        <v>218</v>
+      <c r="B15" s="233" t="s">
+        <v>216</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="57">
         <v>12000</v>
@@ -7973,7 +7979,7 @@
       <c r="G15" s="127">
         <v>500</v>
       </c>
-      <c r="H15" s="310">
+      <c r="H15" s="309">
         <v>6000</v>
       </c>
       <c r="I15" s="59"/>
@@ -7997,7 +8003,7 @@
         <v>17363</v>
       </c>
       <c r="T15" s="188" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U15" s="70"/>
       <c r="V15" s="74"/>
@@ -8077,103 +8083,103 @@
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="267"/>
-      <c r="B18" s="267"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="268">
+      <c r="A18" s="266"/>
+      <c r="B18" s="266"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="267">
         <f t="shared" ref="E18:R18" si="3">SUM(E3:E17)</f>
         <v>139194</v>
       </c>
-      <c r="F18" s="268">
+      <c r="F18" s="267">
         <f t="shared" si="3"/>
         <v>4005</v>
       </c>
-      <c r="G18" s="268">
+      <c r="G18" s="267">
         <f t="shared" si="3"/>
         <v>5006</v>
       </c>
-      <c r="H18" s="268">
+      <c r="H18" s="267">
         <f t="shared" si="3"/>
         <v>69257</v>
       </c>
-      <c r="I18" s="268">
+      <c r="I18" s="267">
         <f t="shared" si="3"/>
         <v>1733</v>
       </c>
-      <c r="J18" s="268">
+      <c r="J18" s="267">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="K18" s="268">
+      <c r="K18" s="267">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L18" s="268">
+      <c r="L18" s="267">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="M18" s="268">
+      <c r="M18" s="267">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="N18" s="268">
+      <c r="N18" s="267">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O18" s="268">
+      <c r="O18" s="267">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="P18" s="268">
+      <c r="P18" s="267">
         <f t="shared" si="3"/>
         <v>17655</v>
       </c>
-      <c r="Q18" s="268">
+      <c r="Q18" s="267">
         <f t="shared" si="3"/>
         <v>4166</v>
       </c>
-      <c r="R18" s="268">
+      <c r="R18" s="267">
         <f t="shared" si="3"/>
         <v>141692</v>
       </c>
-      <c r="S18" s="268">
+      <c r="S18" s="267">
         <f>SUM(S3:S17)</f>
         <v>240698</v>
       </c>
-      <c r="T18" s="269"/>
-      <c r="U18" s="269"/>
-      <c r="V18" s="269"/>
-      <c r="W18" s="269"/>
-      <c r="X18" s="269"/>
-      <c r="Y18" s="269"/>
-      <c r="Z18" s="269"/>
-      <c r="AA18" s="270"/>
-      <c r="AB18" s="269"/>
+      <c r="T18" s="268"/>
+      <c r="U18" s="268"/>
+      <c r="V18" s="268"/>
+      <c r="W18" s="268"/>
+      <c r="X18" s="268"/>
+      <c r="Y18" s="268"/>
+      <c r="Z18" s="268"/>
+      <c r="AA18" s="269"/>
+      <c r="AB18" s="268"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="73"/>
       <c r="B19" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
-      <c r="E19" s="271">
+      <c r="E19" s="270">
         <v>4000</v>
       </c>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="271"/>
-      <c r="J19" s="271"/>
-      <c r="K19" s="271"/>
-      <c r="L19" s="271"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="271"/>
-      <c r="Q19" s="271"/>
-      <c r="R19" s="271"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="270"/>
+      <c r="K19" s="270"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="270"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="270"/>
+      <c r="P19" s="270"/>
+      <c r="Q19" s="270"/>
+      <c r="R19" s="270"/>
       <c r="S19" s="61">
         <f t="shared" ref="S19:S22" si="4">E19+F19+G19-H19-I19-J19+L19-M19+N19+O19+Q19+R19+P19</f>
         <v>4000</v>
@@ -8190,11 +8196,11 @@
     </row>
     <row r="20" spans="1:28" s="33" customFormat="1" ht="22" customHeight="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="264" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="264"/>
-      <c r="D20" s="264"/>
+      <c r="B20" s="263" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
       <c r="E20" s="57">
         <f>5000+7000</f>
         <v>12000</v>
@@ -8216,7 +8222,7 @@
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="T20" s="265"/>
+      <c r="T20" s="264"/>
       <c r="U20" s="70"/>
       <c r="V20" s="74"/>
       <c r="W20" s="74"/>
@@ -8228,11 +8234,11 @@
     </row>
     <row r="21" spans="1:28" s="33" customFormat="1" ht="22" customHeight="1">
       <c r="A21" s="56"/>
-      <c r="B21" s="264" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="264"/>
-      <c r="D21" s="264"/>
+      <c r="B21" s="263" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
       <c r="E21" s="57">
         <f>2000+1250</f>
         <v>3250</v>
@@ -8254,7 +8260,7 @@
         <f t="shared" si="4"/>
         <v>3250</v>
       </c>
-      <c r="T21" s="265"/>
+      <c r="T21" s="264"/>
       <c r="U21" s="70"/>
       <c r="V21" s="74"/>
       <c r="W21" s="74"/>
@@ -8266,11 +8272,11 @@
     </row>
     <row r="22" spans="1:28" s="33" customFormat="1" ht="22" customHeight="1">
       <c r="A22" s="56"/>
-      <c r="B22" s="264" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="264"/>
-      <c r="D22" s="264"/>
+      <c r="B22" s="263" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="263"/>
+      <c r="D22" s="263"/>
       <c r="E22" s="57">
         <f>5000+6000</f>
         <v>11000</v>
@@ -8295,7 +8301,7 @@
         <f t="shared" si="4"/>
         <v>11000</v>
       </c>
-      <c r="T22" s="266"/>
+      <c r="T22" s="265"/>
       <c r="U22" s="70"/>
       <c r="V22" s="74"/>
       <c r="W22" s="74"/>
@@ -8405,14 +8411,14 @@
     <row r="25" spans="1:28" ht="22" customHeight="1">
       <c r="A25" s="35"/>
       <c r="B25" s="62"/>
-      <c r="C25" s="356" t="s">
+      <c r="C25" s="359" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="359"/>
+      <c r="E25" s="359"/>
+      <c r="F25" s="359"/>
+      <c r="G25" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" s="356"/>
-      <c r="E25" s="356"/>
-      <c r="F25" s="356"/>
-      <c r="G25" s="29" t="s">
-        <v>102</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="41"/>
@@ -8592,8 +8598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7264AEAD-7759-40C6-97D0-930393FEFE53}">
   <dimension ref="A2:AC28"/>
   <sheetViews>
-    <sheetView zoomScale="177" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8625,171 +8631,171 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="202" t="s">
+      <c r="F2" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="203" t="s">
+      <c r="G2" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="204" t="s">
+      <c r="I2" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="203" t="s">
+      <c r="J2" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="205" t="s">
+      <c r="K2" s="204" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="204" t="s">
+      <c r="M2" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="203" t="s">
+      <c r="N2" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="203" t="s">
+      <c r="O2" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="202" t="s">
+      <c r="P2" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="206" t="s">
+      <c r="Q2" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="206" t="s">
+      <c r="R2" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="205" t="s">
+      <c r="S2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="201" t="s">
+      <c r="T2" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="206" t="s">
+      <c r="U2" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="206" t="s">
+      <c r="V2" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="206" t="s">
+      <c r="W2" s="205" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="206" t="s">
+      <c r="X2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="206" t="s">
+      <c r="Y2" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="206" t="s">
+      <c r="Z2" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="201" t="s">
+      <c r="AA2" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="201" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" s="207" t="s">
-        <v>155</v>
+      <c r="AB2" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="206" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="21">
       <c r="A3" s="112">
         <v>1054</v>
       </c>
-      <c r="B3" s="251">
+      <c r="B3" s="250">
         <v>1</v>
       </c>
-      <c r="C3" s="324">
+      <c r="C3" s="323">
         <v>2</v>
       </c>
-      <c r="D3" s="245">
+      <c r="D3" s="244">
         <v>3</v>
       </c>
-      <c r="E3" s="325">
+      <c r="E3" s="324">
         <v>4</v>
       </c>
-      <c r="F3" s="251">
+      <c r="F3" s="250">
         <v>5</v>
       </c>
-      <c r="G3" s="324">
+      <c r="G3" s="323">
         <v>6</v>
       </c>
-      <c r="H3" s="245">
+      <c r="H3" s="244">
         <v>7</v>
       </c>
-      <c r="I3" s="325">
+      <c r="I3" s="324">
         <v>8</v>
       </c>
-      <c r="J3" s="251">
+      <c r="J3" s="250">
         <v>9</v>
       </c>
-      <c r="K3" s="324">
+      <c r="K3" s="323">
         <v>10</v>
       </c>
-      <c r="L3" s="245">
+      <c r="L3" s="244">
         <v>11</v>
       </c>
-      <c r="M3" s="325">
+      <c r="M3" s="324">
         <v>12</v>
       </c>
-      <c r="N3" s="251">
+      <c r="N3" s="250">
         <v>13</v>
       </c>
-      <c r="O3" s="324">
+      <c r="O3" s="323">
         <v>14</v>
       </c>
-      <c r="P3" s="251">
+      <c r="P3" s="250">
         <v>15</v>
       </c>
-      <c r="Q3" s="324">
+      <c r="Q3" s="323">
         <v>16</v>
       </c>
-      <c r="R3" s="245">
+      <c r="R3" s="244">
         <v>17</v>
       </c>
-      <c r="S3" s="325">
+      <c r="S3" s="324">
         <v>18</v>
       </c>
-      <c r="T3" s="366" t="s">
-        <v>273</v>
-      </c>
-      <c r="U3" s="324">
+      <c r="T3" s="352" t="s">
+        <v>270</v>
+      </c>
+      <c r="U3" s="323">
         <v>20</v>
       </c>
-      <c r="V3" s="245">
+      <c r="V3" s="244">
         <v>21</v>
       </c>
-      <c r="W3" s="325">
+      <c r="W3" s="324">
         <v>22</v>
       </c>
-      <c r="X3" s="251">
+      <c r="X3" s="250">
         <v>23</v>
       </c>
-      <c r="Y3" s="324">
+      <c r="Y3" s="323">
         <v>24</v>
       </c>
-      <c r="Z3" s="245">
+      <c r="Z3" s="244">
         <v>25</v>
       </c>
       <c r="AA3" s="74" t="s">
@@ -8804,16 +8810,16 @@
       <c r="A4" s="74">
         <v>1018</v>
       </c>
-      <c r="B4" s="234" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="208" t="s">
-        <v>235</v>
+      <c r="B4" s="233" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="207" t="s">
+        <v>272</v>
       </c>
       <c r="D4" s="162" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="210">
+        <v>273</v>
+      </c>
+      <c r="E4" s="209">
         <v>12360</v>
       </c>
       <c r="F4" s="164">
@@ -8828,11 +8834,11 @@
       <c r="I4" s="127">
         <v>600</v>
       </c>
-      <c r="J4" s="209">
-        <v>1000</v>
+      <c r="J4" s="208">
+        <v>10000</v>
       </c>
       <c r="K4" s="154">
-        <v>6000</v>
+        <v>2000000</v>
       </c>
       <c r="L4" s="154">
         <v>3800</v>
@@ -8851,18 +8857,32 @@
       </c>
       <c r="S4" s="127">
         <f t="shared" ref="S4:S17" si="0">SUM(E4+F4+G4+L4+N4+O4+P4+Q4+R4)-H4-I4-J4-M4</f>
-        <v>28200</v>
-      </c>
-      <c r="T4" s="198" t="s">
-        <v>63</v>
-      </c>
-      <c r="U4" s="188"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
+        <v>19200</v>
+      </c>
+      <c r="T4" s="366" t="s">
+        <v>275</v>
+      </c>
+      <c r="U4" s="188">
+        <v>1</v>
+      </c>
+      <c r="V4" s="74">
+        <v>2</v>
+      </c>
+      <c r="W4" s="74">
+        <v>3</v>
+      </c>
+      <c r="X4" s="74">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="74">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="74">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="74" t="s">
+        <v>274</v>
+      </c>
       <c r="AB4" s="74"/>
       <c r="AC4" s="66"/>
     </row>
@@ -8870,33 +8890,33 @@
       <c r="A5" s="112">
         <v>1057</v>
       </c>
-      <c r="B5" s="251" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="324" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="245" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="325">
+      <c r="B5" s="250" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="323" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="324">
         <v>12000</v>
       </c>
-      <c r="F5" s="326"/>
-      <c r="G5" s="226">
+      <c r="F5" s="325"/>
+      <c r="G5" s="225">
         <v>500</v>
       </c>
-      <c r="H5" s="226">
+      <c r="H5" s="225">
         <v>6000</v>
       </c>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="225"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="129"/>
       <c r="N5" s="129"/>
       <c r="O5" s="129"/>
-      <c r="P5" s="344">
+      <c r="P5" s="343">
         <v>1500</v>
       </c>
       <c r="Q5" s="129">
@@ -8905,21 +8925,21 @@
       <c r="R5" s="129">
         <v>4050</v>
       </c>
-      <c r="S5" s="226">
+      <c r="S5" s="225">
         <f t="shared" si="0"/>
         <v>12400</v>
       </c>
-      <c r="T5" s="338" t="s">
-        <v>271</v>
+      <c r="T5" s="337" t="s">
+        <v>268</v>
       </c>
       <c r="U5" s="188">
         <v>0</v>
       </c>
       <c r="V5" s="74"/>
-      <c r="W5" s="212"/>
-      <c r="X5" s="212"/>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="212"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="211"/>
+      <c r="Y5" s="211"/>
+      <c r="Z5" s="211"/>
       <c r="AA5" s="74" t="s">
         <v>50</v>
       </c>
@@ -8932,19 +8952,19 @@
       <c r="A6" s="74">
         <v>1042</v>
       </c>
-      <c r="B6" s="235" t="s">
-        <v>208</v>
+      <c r="B6" s="234" t="s">
+        <v>206</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="162" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="210">
+        <v>218</v>
+      </c>
+      <c r="E6" s="209">
         <v>12000</v>
       </c>
-      <c r="F6" s="211">
+      <c r="F6" s="210">
         <v>1500</v>
       </c>
       <c r="G6" s="127">
@@ -8980,14 +9000,14 @@
         <v>24700</v>
       </c>
       <c r="T6" s="65" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="U6" s="188"/>
       <c r="V6" s="74"/>
-      <c r="W6" s="212"/>
-      <c r="X6" s="212"/>
-      <c r="Y6" s="212"/>
-      <c r="Z6" s="212"/>
+      <c r="W6" s="211"/>
+      <c r="X6" s="211"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="211"/>
       <c r="AA6" s="74"/>
       <c r="AB6" s="74"/>
       <c r="AC6" s="66"/>
@@ -8996,19 +9016,19 @@
       <c r="A7" s="74">
         <v>1058</v>
       </c>
-      <c r="B7" s="235" t="s">
-        <v>224</v>
+      <c r="B7" s="234" t="s">
+        <v>222</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="162" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="163">
         <v>12000</v>
       </c>
-      <c r="F7" s="211"/>
+      <c r="F7" s="210"/>
       <c r="G7" s="191">
         <v>0</v>
       </c>
@@ -9031,7 +9051,7 @@
       <c r="P7" s="66">
         <v>1440</v>
       </c>
-      <c r="Q7" s="343">
+      <c r="Q7" s="342">
         <v>0</v>
       </c>
       <c r="R7" s="133">
@@ -9042,12 +9062,12 @@
         <v>12390</v>
       </c>
       <c r="T7" s="126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U7" s="188">
         <v>0</v>
       </c>
-      <c r="V7" s="212"/>
+      <c r="V7" s="211"/>
       <c r="W7" s="74"/>
       <c r="X7" s="74"/>
       <c r="Y7" s="74"/>
@@ -9064,16 +9084,16 @@
       <c r="A8" s="74">
         <v>1059</v>
       </c>
-      <c r="B8" s="235" t="s">
-        <v>225</v>
+      <c r="B8" s="234" t="s">
+        <v>223</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="162" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="210">
+        <v>105</v>
+      </c>
+      <c r="E8" s="209">
         <v>13000</v>
       </c>
       <c r="F8" s="164">
@@ -9088,7 +9108,7 @@
       <c r="I8" s="127">
         <v>0</v>
       </c>
-      <c r="J8" s="209">
+      <c r="J8" s="208">
         <v>1000</v>
       </c>
       <c r="K8" s="154">
@@ -9115,7 +9135,7 @@
         <v>25275</v>
       </c>
       <c r="T8" s="126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U8" s="188">
         <v>0</v>
@@ -9131,22 +9151,22 @@
       <c r="AB8" s="74">
         <v>60</v>
       </c>
-      <c r="AC8" s="213"/>
+      <c r="AC8" s="212"/>
     </row>
     <row r="9" spans="1:29" ht="21">
       <c r="A9" s="74">
         <v>1061</v>
       </c>
-      <c r="B9" s="272" t="s">
-        <v>226</v>
+      <c r="B9" s="271" t="s">
+        <v>224</v>
       </c>
       <c r="C9" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="210">
+      <c r="E9" s="209">
         <v>12000</v>
       </c>
       <c r="F9" s="74"/>
@@ -9183,16 +9203,16 @@
         <v>15175</v>
       </c>
       <c r="T9" s="126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U9" s="188">
         <v>0</v>
       </c>
-      <c r="V9" s="212"/>
-      <c r="W9" s="212"/>
-      <c r="X9" s="212"/>
-      <c r="Y9" s="212"/>
-      <c r="Z9" s="212"/>
+      <c r="V9" s="211"/>
+      <c r="W9" s="211"/>
+      <c r="X9" s="211"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="211"/>
       <c r="AA9" s="74" t="s">
         <v>50</v>
       </c>
@@ -9205,16 +9225,16 @@
       <c r="A10" s="74">
         <v>1062</v>
       </c>
-      <c r="B10" s="235" t="s">
-        <v>227</v>
+      <c r="B10" s="234" t="s">
+        <v>225</v>
       </c>
       <c r="C10" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="210">
+      <c r="E10" s="209">
         <v>12000</v>
       </c>
       <c r="F10" s="168"/>
@@ -9251,16 +9271,16 @@
         <v>16250</v>
       </c>
       <c r="T10" s="190" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U10" s="188">
         <v>0</v>
       </c>
-      <c r="V10" s="212"/>
-      <c r="W10" s="212"/>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="212"/>
-      <c r="Z10" s="212"/>
+      <c r="V10" s="211"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="211"/>
       <c r="AA10" s="74" t="s">
         <v>50</v>
       </c>
@@ -9273,19 +9293,19 @@
       <c r="A11" s="74">
         <v>1063</v>
       </c>
-      <c r="B11" s="237" t="s">
-        <v>228</v>
+      <c r="B11" s="236" t="s">
+        <v>226</v>
       </c>
       <c r="C11" s="182" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="182" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="210">
+        <v>120</v>
+      </c>
+      <c r="E11" s="209">
         <v>12000</v>
       </c>
-      <c r="F11" s="214"/>
+      <c r="F11" s="213"/>
       <c r="G11" s="127">
         <v>500</v>
       </c>
@@ -9313,14 +9333,14 @@
         <v>12475</v>
       </c>
       <c r="T11" s="186" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U11" s="188"/>
-      <c r="V11" s="215"/>
-      <c r="W11" s="215"/>
-      <c r="X11" s="215"/>
-      <c r="Y11" s="215"/>
-      <c r="Z11" s="215"/>
+      <c r="V11" s="214"/>
+      <c r="W11" s="214"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="214"/>
+      <c r="Z11" s="214"/>
       <c r="AA11" s="74"/>
       <c r="AB11" s="74"/>
       <c r="AC11" s="66"/>
@@ -9329,35 +9349,35 @@
       <c r="A12" s="112">
         <v>1072</v>
       </c>
-      <c r="B12" s="239" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="327" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="327" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="325">
+      <c r="B12" s="238" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="326" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="324">
         <v>12000</v>
       </c>
-      <c r="F12" s="328"/>
-      <c r="G12" s="226">
+      <c r="F12" s="327"/>
+      <c r="G12" s="225">
         <v>500</v>
       </c>
-      <c r="H12" s="226">
+      <c r="H12" s="225">
         <v>3000</v>
       </c>
-      <c r="I12" s="226"/>
-      <c r="J12" s="327">
+      <c r="I12" s="225"/>
+      <c r="J12" s="326">
         <v>3000</v>
       </c>
-      <c r="K12" s="327"/>
-      <c r="L12" s="225"/>
+      <c r="K12" s="326"/>
+      <c r="L12" s="224"/>
       <c r="M12" s="129"/>
       <c r="N12" s="129"/>
       <c r="O12" s="129"/>
-      <c r="P12" s="344">
+      <c r="P12" s="343">
         <v>1500</v>
       </c>
       <c r="Q12" s="129">
@@ -9366,19 +9386,19 @@
       <c r="R12" s="129">
         <v>1350</v>
       </c>
-      <c r="S12" s="226">
+      <c r="S12" s="225">
         <f t="shared" si="0"/>
         <v>9625</v>
       </c>
       <c r="T12" s="186" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="U12" s="188"/>
-      <c r="V12" s="215"/>
-      <c r="W12" s="215"/>
-      <c r="X12" s="215"/>
-      <c r="Y12" s="215"/>
-      <c r="Z12" s="215"/>
+      <c r="V12" s="214"/>
+      <c r="W12" s="214"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
       <c r="AA12" s="74"/>
       <c r="AB12" s="74"/>
       <c r="AC12" s="66"/>
@@ -9387,33 +9407,33 @@
       <c r="A13" s="112">
         <v>1068</v>
       </c>
-      <c r="B13" s="239" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="327" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="327" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="325">
+      <c r="B13" s="238" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="326" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="326" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="324">
         <v>12000</v>
       </c>
-      <c r="F13" s="328"/>
-      <c r="G13" s="226">
+      <c r="F13" s="327"/>
+      <c r="G13" s="225">
         <v>500</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="225">
         <v>6000</v>
       </c>
-      <c r="I13" s="226"/>
-      <c r="J13" s="327"/>
-      <c r="K13" s="327"/>
-      <c r="L13" s="225"/>
+      <c r="I13" s="225"/>
+      <c r="J13" s="326"/>
+      <c r="K13" s="326"/>
+      <c r="L13" s="224"/>
       <c r="M13" s="129"/>
       <c r="N13" s="129"/>
       <c r="O13" s="129"/>
-      <c r="P13" s="344">
+      <c r="P13" s="343">
         <v>1500</v>
       </c>
       <c r="Q13" s="129">
@@ -9422,19 +9442,19 @@
       <c r="R13" s="129">
         <v>1800</v>
       </c>
-      <c r="S13" s="226">
+      <c r="S13" s="225">
         <f t="shared" si="0"/>
         <v>10100</v>
       </c>
       <c r="T13" s="186" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U13" s="188"/>
-      <c r="V13" s="215"/>
-      <c r="W13" s="215"/>
-      <c r="X13" s="215"/>
-      <c r="Y13" s="215"/>
-      <c r="Z13" s="215"/>
+      <c r="V13" s="214"/>
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
       <c r="AA13" s="74"/>
       <c r="AB13" s="74"/>
       <c r="AC13" s="66"/>
@@ -9443,33 +9463,33 @@
       <c r="A14" s="112">
         <v>1069</v>
       </c>
-      <c r="B14" s="239" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="327" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="327" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="325">
+      <c r="B14" s="238" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="326" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="326" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="324">
         <v>12000</v>
       </c>
-      <c r="F14" s="328"/>
-      <c r="G14" s="226">
+      <c r="F14" s="327"/>
+      <c r="G14" s="225">
         <v>500</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="225">
         <v>6000</v>
       </c>
-      <c r="I14" s="226"/>
-      <c r="J14" s="327"/>
-      <c r="K14" s="327"/>
-      <c r="L14" s="225"/>
+      <c r="I14" s="225"/>
+      <c r="J14" s="326"/>
+      <c r="K14" s="326"/>
+      <c r="L14" s="224"/>
       <c r="M14" s="129"/>
       <c r="N14" s="129"/>
       <c r="O14" s="129"/>
-      <c r="P14" s="344">
+      <c r="P14" s="343">
         <v>1500</v>
       </c>
       <c r="Q14" s="129">
@@ -9478,19 +9498,19 @@
       <c r="R14" s="129">
         <v>1800</v>
       </c>
-      <c r="S14" s="226">
+      <c r="S14" s="225">
         <f t="shared" si="0"/>
         <v>10150</v>
       </c>
       <c r="T14" s="186" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U14" s="188"/>
-      <c r="V14" s="215"/>
-      <c r="W14" s="215"/>
-      <c r="X14" s="215"/>
-      <c r="Y14" s="215"/>
-      <c r="Z14" s="215"/>
+      <c r="V14" s="214"/>
+      <c r="W14" s="214"/>
+      <c r="X14" s="214"/>
+      <c r="Y14" s="214"/>
+      <c r="Z14" s="214"/>
       <c r="AA14" s="74"/>
       <c r="AB14" s="74"/>
       <c r="AC14" s="66"/>
@@ -9499,19 +9519,19 @@
       <c r="A15" s="74">
         <v>1070</v>
       </c>
-      <c r="B15" s="237" t="s">
-        <v>242</v>
+      <c r="B15" s="236" t="s">
+        <v>239</v>
       </c>
       <c r="C15" s="182" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D15" s="182" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="210">
+        <v>67</v>
+      </c>
+      <c r="E15" s="209">
         <v>12000</v>
       </c>
-      <c r="F15" s="214"/>
+      <c r="F15" s="213"/>
       <c r="G15" s="191">
         <v>0</v>
       </c>
@@ -9530,10 +9550,10 @@
       <c r="P15" s="66">
         <v>1200</v>
       </c>
-      <c r="Q15" s="343">
+      <c r="Q15" s="342">
         <v>0</v>
       </c>
-      <c r="R15" s="343">
+      <c r="R15" s="342">
         <v>0</v>
       </c>
       <c r="S15" s="127">
@@ -9541,14 +9561,14 @@
         <v>6688</v>
       </c>
       <c r="T15" s="186" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U15" s="188"/>
-      <c r="V15" s="215"/>
-      <c r="W15" s="215"/>
-      <c r="X15" s="215"/>
-      <c r="Y15" s="215"/>
-      <c r="Z15" s="215"/>
+      <c r="V15" s="214"/>
+      <c r="W15" s="214"/>
+      <c r="X15" s="214"/>
+      <c r="Y15" s="214"/>
+      <c r="Z15" s="214"/>
       <c r="AA15" s="74"/>
       <c r="AB15" s="74"/>
       <c r="AC15" s="66"/>
@@ -9557,33 +9577,33 @@
       <c r="A16" s="112">
         <v>1071</v>
       </c>
-      <c r="B16" s="239" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="327" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="327" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="325">
+      <c r="B16" s="238" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="326" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="326" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="324">
         <v>12000</v>
       </c>
-      <c r="F16" s="328"/>
-      <c r="G16" s="226">
+      <c r="F16" s="327"/>
+      <c r="G16" s="225">
         <v>500</v>
       </c>
-      <c r="H16" s="226">
+      <c r="H16" s="225">
         <v>6000</v>
       </c>
-      <c r="I16" s="226"/>
-      <c r="J16" s="327"/>
-      <c r="K16" s="327"/>
-      <c r="L16" s="225"/>
+      <c r="I16" s="225"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="326"/>
+      <c r="L16" s="224"/>
       <c r="M16" s="129"/>
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
-      <c r="P16" s="344">
+      <c r="P16" s="343">
         <v>1500</v>
       </c>
       <c r="Q16" s="129">
@@ -9592,19 +9612,19 @@
       <c r="R16" s="129">
         <v>1800</v>
       </c>
-      <c r="S16" s="226">
+      <c r="S16" s="225">
         <f t="shared" si="0"/>
         <v>10150</v>
       </c>
       <c r="T16" s="186" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U16" s="188"/>
-      <c r="V16" s="215"/>
-      <c r="W16" s="215"/>
-      <c r="X16" s="215"/>
-      <c r="Y16" s="215"/>
-      <c r="Z16" s="215"/>
+      <c r="V16" s="214"/>
+      <c r="W16" s="214"/>
+      <c r="X16" s="214"/>
+      <c r="Y16" s="214"/>
+      <c r="Z16" s="214"/>
       <c r="AA16" s="74"/>
       <c r="AB16" s="74"/>
       <c r="AC16" s="66"/>
@@ -9613,19 +9633,19 @@
       <c r="A17" s="74">
         <v>1066</v>
       </c>
-      <c r="B17" s="237" t="s">
-        <v>229</v>
+      <c r="B17" s="236" t="s">
+        <v>227</v>
       </c>
       <c r="C17" s="182" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="163">
         <v>12000</v>
       </c>
-      <c r="F17" s="214"/>
+      <c r="F17" s="213"/>
       <c r="G17" s="127">
         <v>500</v>
       </c>
@@ -9659,23 +9679,23 @@
         <v>15125</v>
       </c>
       <c r="T17" s="186" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U17" s="188">
         <v>0</v>
       </c>
-      <c r="V17" s="215"/>
-      <c r="W17" s="215"/>
-      <c r="X17" s="215"/>
-      <c r="Y17" s="215"/>
-      <c r="Z17" s="215"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="214"/>
+      <c r="Z17" s="214"/>
       <c r="AA17" s="74" t="s">
         <v>50</v>
       </c>
       <c r="AB17" s="74">
         <v>60</v>
       </c>
-      <c r="AC17" s="216"/>
+      <c r="AC17" s="215"/>
     </row>
     <row r="18" spans="1:29" ht="21">
       <c r="A18" s="74"/>
@@ -9683,8 +9703,8 @@
       <c r="C18" s="182"/>
       <c r="D18" s="182"/>
       <c r="E18" s="163"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="310"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="309"/>
       <c r="H18" s="127"/>
       <c r="I18" s="127"/>
       <c r="J18" s="182"/>
@@ -9692,21 +9712,21 @@
       <c r="L18" s="154"/>
       <c r="M18" s="133"/>
       <c r="N18" s="133"/>
-      <c r="O18" s="303"/>
+      <c r="O18" s="302"/>
       <c r="P18" s="133"/>
       <c r="Q18" s="192"/>
       <c r="R18" s="133"/>
       <c r="S18" s="127"/>
       <c r="T18" s="186"/>
       <c r="U18" s="188"/>
-      <c r="V18" s="215"/>
-      <c r="W18" s="215"/>
-      <c r="X18" s="215"/>
-      <c r="Y18" s="215"/>
-      <c r="Z18" s="215"/>
+      <c r="V18" s="214"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="214"/>
+      <c r="Z18" s="214"/>
       <c r="AA18" s="74"/>
       <c r="AB18" s="74"/>
-      <c r="AC18" s="216"/>
+      <c r="AC18" s="215"/>
     </row>
     <row r="19" spans="1:29" ht="21">
       <c r="A19" s="74"/>
@@ -9714,7 +9734,7 @@
       <c r="C19" s="182"/>
       <c r="D19" s="182"/>
       <c r="E19" s="163"/>
-      <c r="F19" s="214"/>
+      <c r="F19" s="213"/>
       <c r="G19" s="191"/>
       <c r="H19" s="127"/>
       <c r="I19" s="127"/>
@@ -9723,393 +9743,393 @@
       <c r="L19" s="154"/>
       <c r="M19" s="133"/>
       <c r="N19" s="133"/>
-      <c r="O19" s="303"/>
+      <c r="O19" s="302"/>
       <c r="P19" s="133"/>
       <c r="Q19" s="192"/>
       <c r="R19" s="133"/>
       <c r="S19" s="127"/>
       <c r="T19" s="186"/>
       <c r="U19" s="188"/>
-      <c r="V19" s="215"/>
-      <c r="W19" s="215"/>
-      <c r="X19" s="215"/>
-      <c r="Y19" s="215"/>
-      <c r="Z19" s="215"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="214"/>
+      <c r="Z19" s="214"/>
       <c r="AA19" s="74"/>
       <c r="AB19" s="74"/>
-      <c r="AC19" s="216"/>
+      <c r="AC19" s="215"/>
     </row>
     <row r="20" spans="1:29" ht="21">
-      <c r="A20" s="222"/>
-      <c r="B20" s="222"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="273"/>
-      <c r="E20" s="305">
+      <c r="A20" s="221"/>
+      <c r="B20" s="221"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="304">
         <f t="shared" ref="E20:R20" si="1">SUM(E3:E19)</f>
         <v>169364</v>
       </c>
-      <c r="F20" s="305">
+      <c r="F20" s="304">
         <f t="shared" si="1"/>
         <v>6505</v>
       </c>
-      <c r="G20" s="305">
+      <c r="G20" s="304">
         <f t="shared" si="1"/>
         <v>5506</v>
       </c>
-      <c r="H20" s="305">
+      <c r="H20" s="304">
         <f t="shared" si="1"/>
         <v>81007</v>
       </c>
-      <c r="I20" s="305">
+      <c r="I20" s="304">
         <f t="shared" si="1"/>
         <v>608</v>
       </c>
-      <c r="J20" s="307">
+      <c r="J20" s="306">
         <f t="shared" si="1"/>
-        <v>6009</v>
-      </c>
-      <c r="K20" s="307">
+        <v>15009</v>
+      </c>
+      <c r="K20" s="306">
         <f t="shared" si="1"/>
-        <v>15010</v>
-      </c>
-      <c r="L20" s="306">
+        <v>2009010</v>
+      </c>
+      <c r="L20" s="305">
         <f t="shared" si="1"/>
         <v>7811</v>
       </c>
-      <c r="M20" s="305">
+      <c r="M20" s="304">
         <f t="shared" si="1"/>
         <v>524</v>
       </c>
-      <c r="N20" s="305">
+      <c r="N20" s="304">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="O20" s="306">
+      <c r="O20" s="305">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P20" s="307">
+      <c r="P20" s="306">
         <f t="shared" si="1"/>
         <v>20595</v>
       </c>
-      <c r="Q20" s="305">
+      <c r="Q20" s="304">
         <f t="shared" si="1"/>
         <v>5766</v>
       </c>
-      <c r="R20" s="305">
+      <c r="R20" s="304">
         <f t="shared" si="1"/>
         <v>81342</v>
       </c>
-      <c r="S20" s="305">
+      <c r="S20" s="304">
         <f>SUM(S3:S19)</f>
-        <v>208721</v>
-      </c>
-      <c r="T20" s="274"/>
-      <c r="U20" s="275"/>
-      <c r="V20" s="276"/>
-      <c r="W20" s="276"/>
-      <c r="X20" s="276"/>
-      <c r="Y20" s="276"/>
-      <c r="Z20" s="276"/>
-      <c r="AA20" s="222"/>
-      <c r="AB20" s="222"/>
-      <c r="AC20" s="277"/>
+        <v>199721</v>
+      </c>
+      <c r="T20" s="273"/>
+      <c r="U20" s="274"/>
+      <c r="V20" s="275"/>
+      <c r="W20" s="275"/>
+      <c r="X20" s="275"/>
+      <c r="Y20" s="275"/>
+      <c r="Z20" s="275"/>
+      <c r="AA20" s="221"/>
+      <c r="AB20" s="221"/>
+      <c r="AC20" s="276"/>
     </row>
     <row r="21" spans="1:29" ht="21">
-      <c r="A21" s="279"/>
-      <c r="B21" s="279" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="279" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="280"/>
-      <c r="E21" s="281">
+      <c r="A21" s="278"/>
+      <c r="B21" s="278" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="278" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="279"/>
+      <c r="E21" s="280">
         <v>4000</v>
       </c>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="281"/>
-      <c r="L21" s="281"/>
-      <c r="M21" s="289"/>
-      <c r="N21" s="289"/>
-      <c r="O21" s="289"/>
-      <c r="P21" s="289"/>
-      <c r="Q21" s="289"/>
-      <c r="R21" s="289"/>
-      <c r="S21" s="278">
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="288"/>
+      <c r="N21" s="288"/>
+      <c r="O21" s="288"/>
+      <c r="P21" s="288"/>
+      <c r="Q21" s="288"/>
+      <c r="R21" s="288"/>
+      <c r="S21" s="277">
         <f>SUM(E21+F21+G21+L21+N21+O21+P21+R21)-H21-I21-J21-M21</f>
         <v>4000</v>
       </c>
-      <c r="T21" s="285"/>
-      <c r="U21" s="286"/>
-      <c r="V21" s="287"/>
-      <c r="W21" s="287"/>
-      <c r="X21" s="287"/>
-      <c r="Y21" s="287"/>
-      <c r="Z21" s="287"/>
-      <c r="AA21" s="279"/>
-      <c r="AB21" s="279"/>
-      <c r="AC21" s="288"/>
+      <c r="T21" s="284"/>
+      <c r="U21" s="285"/>
+      <c r="V21" s="286"/>
+      <c r="W21" s="286"/>
+      <c r="X21" s="286"/>
+      <c r="Y21" s="286"/>
+      <c r="Z21" s="286"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="278"/>
+      <c r="AC21" s="287"/>
     </row>
     <row r="22" spans="1:29" ht="21">
-      <c r="A22" s="279"/>
-      <c r="B22" s="279" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="279" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="280"/>
-      <c r="E22" s="281">
+      <c r="A22" s="278"/>
+      <c r="B22" s="278" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="278" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="279"/>
+      <c r="E22" s="280">
         <f>5000+5000</f>
         <v>10000</v>
       </c>
-      <c r="F22" s="279"/>
-      <c r="G22" s="282"/>
-      <c r="H22" s="278"/>
-      <c r="I22" s="278"/>
-      <c r="J22" s="279"/>
-      <c r="K22" s="278"/>
-      <c r="L22" s="278"/>
-      <c r="M22" s="283"/>
-      <c r="N22" s="283"/>
-      <c r="O22" s="283"/>
-      <c r="P22" s="283"/>
-      <c r="Q22" s="284"/>
-      <c r="R22" s="283"/>
-      <c r="S22" s="278">
+      <c r="F22" s="278"/>
+      <c r="G22" s="281"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="278"/>
+      <c r="K22" s="277"/>
+      <c r="L22" s="277"/>
+      <c r="M22" s="282"/>
+      <c r="N22" s="282"/>
+      <c r="O22" s="282"/>
+      <c r="P22" s="282"/>
+      <c r="Q22" s="283"/>
+      <c r="R22" s="282"/>
+      <c r="S22" s="277">
         <f>SUM(E22+F22+G22+L22+N22+O22+P22+R22)-H22-I22-J22-M22</f>
         <v>10000</v>
       </c>
-      <c r="T22" s="285"/>
-      <c r="U22" s="286"/>
-      <c r="V22" s="287"/>
-      <c r="W22" s="287"/>
-      <c r="X22" s="287"/>
-      <c r="Y22" s="287"/>
-      <c r="Z22" s="287"/>
-      <c r="AA22" s="279"/>
-      <c r="AB22" s="279"/>
-      <c r="AC22" s="288"/>
+      <c r="T22" s="284"/>
+      <c r="U22" s="285"/>
+      <c r="V22" s="286"/>
+      <c r="W22" s="286"/>
+      <c r="X22" s="286"/>
+      <c r="Y22" s="286"/>
+      <c r="Z22" s="286"/>
+      <c r="AA22" s="278"/>
+      <c r="AB22" s="278"/>
+      <c r="AC22" s="287"/>
     </row>
     <row r="23" spans="1:29" ht="21">
       <c r="A23" s="74"/>
-      <c r="B23" s="279" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="279" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="280"/>
-      <c r="E23" s="281">
+      <c r="B23" s="278" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="278" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="279"/>
+      <c r="E23" s="280">
         <f>5000+5000</f>
         <v>10000</v>
       </c>
-      <c r="F23" s="279"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="278"/>
-      <c r="I23" s="278"/>
-      <c r="J23" s="279"/>
-      <c r="K23" s="278"/>
-      <c r="L23" s="278"/>
-      <c r="M23" s="283"/>
-      <c r="N23" s="283"/>
-      <c r="O23" s="283"/>
-      <c r="P23" s="283"/>
-      <c r="Q23" s="284"/>
-      <c r="R23" s="283"/>
-      <c r="S23" s="278">
+      <c r="F23" s="278"/>
+      <c r="G23" s="281"/>
+      <c r="H23" s="277"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="278"/>
+      <c r="K23" s="277"/>
+      <c r="L23" s="277"/>
+      <c r="M23" s="282"/>
+      <c r="N23" s="282"/>
+      <c r="O23" s="282"/>
+      <c r="P23" s="282"/>
+      <c r="Q23" s="283"/>
+      <c r="R23" s="282"/>
+      <c r="S23" s="277">
         <f>SUM(E23+F23+G23+L23+N23+O23+P23+R23)-H23-I23-J23-M23</f>
         <v>10000</v>
       </c>
-      <c r="T23" s="285"/>
-      <c r="U23" s="286"/>
-      <c r="V23" s="287"/>
-      <c r="W23" s="287"/>
-      <c r="X23" s="287"/>
-      <c r="Y23" s="287"/>
-      <c r="Z23" s="287"/>
-      <c r="AA23" s="279"/>
-      <c r="AB23" s="279"/>
-      <c r="AC23" s="288"/>
+      <c r="T23" s="284"/>
+      <c r="U23" s="285"/>
+      <c r="V23" s="286"/>
+      <c r="W23" s="286"/>
+      <c r="X23" s="286"/>
+      <c r="Y23" s="286"/>
+      <c r="Z23" s="286"/>
+      <c r="AA23" s="278"/>
+      <c r="AB23" s="278"/>
+      <c r="AC23" s="287"/>
     </row>
     <row r="24" spans="1:29" ht="21">
       <c r="A24" s="74"/>
-      <c r="B24" s="279" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="279" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="280"/>
-      <c r="E24" s="281">
+      <c r="B24" s="278" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="278" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="279"/>
+      <c r="E24" s="280">
         <f>2000+2000</f>
         <v>4000</v>
       </c>
-      <c r="F24" s="279"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="278"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="279"/>
-      <c r="K24" s="278"/>
-      <c r="L24" s="278"/>
-      <c r="M24" s="283"/>
-      <c r="N24" s="283"/>
-      <c r="O24" s="283"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="284"/>
-      <c r="R24" s="283"/>
-      <c r="S24" s="278">
+      <c r="F24" s="278"/>
+      <c r="G24" s="281"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="278"/>
+      <c r="K24" s="277"/>
+      <c r="L24" s="277"/>
+      <c r="M24" s="282"/>
+      <c r="N24" s="282"/>
+      <c r="O24" s="282"/>
+      <c r="P24" s="282"/>
+      <c r="Q24" s="283"/>
+      <c r="R24" s="282"/>
+      <c r="S24" s="277">
         <f>SUM(E24+F24+G24+L24+N24+O24+P24+R24)-H24-I24-J24-M24</f>
         <v>4000</v>
       </c>
-      <c r="T24" s="285"/>
-      <c r="U24" s="286"/>
-      <c r="V24" s="287"/>
-      <c r="W24" s="287"/>
-      <c r="X24" s="287"/>
-      <c r="Y24" s="287"/>
-      <c r="Z24" s="287"/>
-      <c r="AA24" s="279"/>
-      <c r="AB24" s="279"/>
-      <c r="AC24" s="288"/>
+      <c r="T24" s="284"/>
+      <c r="U24" s="285"/>
+      <c r="V24" s="286"/>
+      <c r="W24" s="286"/>
+      <c r="X24" s="286"/>
+      <c r="Y24" s="286"/>
+      <c r="Z24" s="286"/>
+      <c r="AA24" s="278"/>
+      <c r="AB24" s="278"/>
+      <c r="AC24" s="287"/>
     </row>
     <row r="25" spans="1:29" ht="21">
       <c r="A25" s="74"/>
-      <c r="B25" s="279"/>
-      <c r="C25" s="279"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="278"/>
-      <c r="I25" s="278"/>
-      <c r="J25" s="279"/>
-      <c r="K25" s="278"/>
-      <c r="L25" s="278"/>
-      <c r="M25" s="283"/>
-      <c r="N25" s="283"/>
-      <c r="O25" s="283"/>
-      <c r="P25" s="283"/>
-      <c r="Q25" s="284"/>
-      <c r="R25" s="283"/>
-      <c r="S25" s="278">
+      <c r="B25" s="278"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="277"/>
+      <c r="I25" s="277"/>
+      <c r="J25" s="278"/>
+      <c r="K25" s="277"/>
+      <c r="L25" s="277"/>
+      <c r="M25" s="282"/>
+      <c r="N25" s="282"/>
+      <c r="O25" s="282"/>
+      <c r="P25" s="282"/>
+      <c r="Q25" s="283"/>
+      <c r="R25" s="282"/>
+      <c r="S25" s="277">
         <f>SUM(S22:S24)</f>
         <v>24000</v>
       </c>
-      <c r="T25" s="285"/>
-      <c r="U25" s="286"/>
-      <c r="V25" s="287"/>
-      <c r="W25" s="287"/>
-      <c r="X25" s="287"/>
-      <c r="Y25" s="287"/>
-      <c r="Z25" s="287"/>
-      <c r="AA25" s="279"/>
-      <c r="AB25" s="279"/>
-      <c r="AC25" s="288"/>
+      <c r="T25" s="284"/>
+      <c r="U25" s="285"/>
+      <c r="V25" s="286"/>
+      <c r="W25" s="286"/>
+      <c r="X25" s="286"/>
+      <c r="Y25" s="286"/>
+      <c r="Z25" s="286"/>
+      <c r="AA25" s="278"/>
+      <c r="AB25" s="278"/>
+      <c r="AC25" s="287"/>
     </row>
     <row r="26" spans="1:29" ht="21">
-      <c r="A26" s="217"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="308">
+      <c r="A26" s="216"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="307">
         <f t="shared" ref="E26:P26" si="2">SUM(E3:E19)</f>
         <v>169364</v>
       </c>
-      <c r="F26" s="308">
+      <c r="F26" s="307">
         <f t="shared" si="2"/>
         <v>6505</v>
       </c>
-      <c r="G26" s="308">
+      <c r="G26" s="307">
         <f t="shared" si="2"/>
         <v>5506</v>
       </c>
-      <c r="H26" s="308">
+      <c r="H26" s="307">
         <f t="shared" si="2"/>
         <v>81007</v>
       </c>
-      <c r="I26" s="308">
+      <c r="I26" s="307">
         <f t="shared" si="2"/>
         <v>608</v>
       </c>
-      <c r="J26" s="309">
+      <c r="J26" s="308">
         <f t="shared" si="2"/>
-        <v>6009</v>
-      </c>
-      <c r="K26" s="308">
+        <v>15009</v>
+      </c>
+      <c r="K26" s="307">
         <f t="shared" si="2"/>
-        <v>15010</v>
-      </c>
-      <c r="L26" s="309">
+        <v>2009010</v>
+      </c>
+      <c r="L26" s="308">
         <f t="shared" si="2"/>
         <v>7811</v>
       </c>
-      <c r="M26" s="308">
+      <c r="M26" s="307">
         <f t="shared" si="2"/>
         <v>524</v>
       </c>
-      <c r="N26" s="308">
+      <c r="N26" s="307">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O26" s="309">
+      <c r="O26" s="308">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="P26" s="309">
+      <c r="P26" s="308">
         <f t="shared" si="2"/>
         <v>20595</v>
       </c>
-      <c r="Q26" s="308">
+      <c r="Q26" s="307">
         <f>SUM(Q3:Q19)</f>
         <v>5766</v>
       </c>
-      <c r="R26" s="308">
+      <c r="R26" s="307">
         <f>SUM(R3:R19)</f>
         <v>81342</v>
       </c>
-      <c r="S26" s="347">
+      <c r="S26" s="346">
         <f>S20+S21+S22+S23+S24+S25</f>
-        <v>260721</v>
-      </c>
-      <c r="T26" s="218">
+        <v>251721</v>
+      </c>
+      <c r="T26" s="217">
         <f t="shared" ref="T26:AA26" si="3">SUM(T3:T19)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="218">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="V26" s="218">
+      <c r="U26" s="217">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="W26" s="218">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="X26" s="218">
+      <c r="V26" s="217">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="Y26" s="218">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="Z26" s="218">
+      <c r="W26" s="217">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="AA26" s="218">
+      <c r="X26" s="217">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="Y26" s="217">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="Z26" s="217">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="AA26" s="217">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="218"/>
+      <c r="AB26" s="217"/>
       <c r="AC26" s="66"/>
     </row>
     <row r="27" spans="1:29">
@@ -10142,7 +10162,7 @@
       <c r="AC27" s="66"/>
     </row>
     <row r="28" spans="1:29">
-      <c r="S28" s="221"/>
+      <c r="S28" s="220"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10160,9 +10180,10 @@
     <hyperlink ref="T7" r:id="rId12" xr:uid="{06095F18-224E-4D75-8129-63051B2D7074}"/>
     <hyperlink ref="T10" r:id="rId13" xr:uid="{32549299-D3B6-4592-8FED-A71EC28C7420}"/>
     <hyperlink ref="T3" r:id="rId14" xr:uid="{2DB0AA6C-A776-DD4B-8717-AF41608E0FB1}"/>
+    <hyperlink ref="T4" r:id="rId15" xr:uid="{A2FB0C4F-6864-5E49-BA91-DE19791263BF}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -10207,12 +10228,12 @@
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
-      <c r="J1" s="361" t="s">
+      <c r="J1" s="364" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="361"/>
-      <c r="L1" s="361"/>
-      <c r="M1" s="361"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="C2" s="27" t="s">
@@ -10224,8 +10245,8 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
       <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1">
@@ -10245,7 +10266,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -10289,24 +10310,24 @@
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="360" t="s">
+      <c r="B9" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="360"/>
+      <c r="C9" s="363"/>
       <c r="D9" s="43"/>
       <c r="E9" s="42"/>
-      <c r="F9" s="360" t="s">
+      <c r="F9" s="363" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="360"/>
+      <c r="G9" s="363"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="360" t="s">
+      <c r="K9" s="363" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="360"/>
-      <c r="M9" s="360"/>
+      <c r="L9" s="363"/>
+      <c r="M9" s="363"/>
       <c r="N9" s="53"/>
     </row>
     <row r="10" spans="1:14" ht="5.25" customHeight="1">
@@ -10509,7 +10530,7 @@
     <row r="17" spans="1:14" ht="24" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="12" t="e">
         <f ca="1">IF(VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),12)=0,"-",VLOOKUP(C5,INDIRECT(C4&amp;"!A3:AZ51"),12))</f>
@@ -10620,54 +10641,54 @@
     <row r="24" spans="1:14" ht="9.75" customHeight="1"/>
     <row r="25" spans="1:14" ht="6.75" customHeight="1"/>
     <row r="26" spans="1:14" ht="24" customHeight="1">
-      <c r="A26" s="357" t="s">
+      <c r="A26" s="360" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="358"/>
-      <c r="C26" s="358"/>
-      <c r="D26" s="358"/>
-      <c r="E26" s="358"/>
-      <c r="F26" s="358"/>
-      <c r="G26" s="358"/>
-      <c r="H26" s="358"/>
-      <c r="I26" s="358"/>
-      <c r="J26" s="358"/>
-      <c r="K26" s="358"/>
-      <c r="L26" s="358"/>
-      <c r="M26" s="358"/>
-      <c r="N26" s="358"/>
+      <c r="B26" s="361"/>
+      <c r="C26" s="361"/>
+      <c r="D26" s="361"/>
+      <c r="E26" s="361"/>
+      <c r="F26" s="361"/>
+      <c r="G26" s="361"/>
+      <c r="H26" s="361"/>
+      <c r="I26" s="361"/>
+      <c r="J26" s="361"/>
+      <c r="K26" s="361"/>
+      <c r="L26" s="361"/>
+      <c r="M26" s="361"/>
+      <c r="N26" s="361"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="359"/>
-      <c r="B27" s="359"/>
-      <c r="C27" s="359"/>
-      <c r="D27" s="359"/>
-      <c r="E27" s="359"/>
-      <c r="F27" s="359"/>
-      <c r="G27" s="359"/>
-      <c r="H27" s="359"/>
-      <c r="I27" s="359"/>
-      <c r="J27" s="359"/>
-      <c r="K27" s="359"/>
-      <c r="L27" s="359"/>
-      <c r="M27" s="359"/>
-      <c r="N27" s="359"/>
+      <c r="A27" s="362"/>
+      <c r="B27" s="362"/>
+      <c r="C27" s="362"/>
+      <c r="D27" s="362"/>
+      <c r="E27" s="362"/>
+      <c r="F27" s="362"/>
+      <c r="G27" s="362"/>
+      <c r="H27" s="362"/>
+      <c r="I27" s="362"/>
+      <c r="J27" s="362"/>
+      <c r="K27" s="362"/>
+      <c r="L27" s="362"/>
+      <c r="M27" s="362"/>
+      <c r="N27" s="362"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="359"/>
-      <c r="B28" s="359"/>
-      <c r="C28" s="359"/>
-      <c r="D28" s="359"/>
-      <c r="E28" s="359"/>
-      <c r="F28" s="359"/>
-      <c r="G28" s="359"/>
-      <c r="H28" s="359"/>
-      <c r="I28" s="359"/>
-      <c r="J28" s="359"/>
-      <c r="K28" s="359"/>
-      <c r="L28" s="359"/>
-      <c r="M28" s="359"/>
-      <c r="N28" s="359"/>
+      <c r="A28" s="362"/>
+      <c r="B28" s="362"/>
+      <c r="C28" s="362"/>
+      <c r="D28" s="362"/>
+      <c r="E28" s="362"/>
+      <c r="F28" s="362"/>
+      <c r="G28" s="362"/>
+      <c r="H28" s="362"/>
+      <c r="I28" s="362"/>
+      <c r="J28" s="362"/>
+      <c r="K28" s="362"/>
+      <c r="L28" s="362"/>
+      <c r="M28" s="362"/>
+      <c r="N28" s="362"/>
     </row>
     <row r="30" spans="1:14">
       <c r="C30" s="44"/>
